--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
+        <v>陈维钧</v>
+      </c>
+      <c r="D3" s="0">
         <v>王元元</v>
       </c>
-      <c r="D3" s="0">
-        <v>利宇涛</v>
-      </c>
       <c r="F3" s="0">
-        <v>田敏德</v>
+        <v>邱建华</v>
       </c>
       <c r="H3" s="0">
-        <v>古兆康</v>
+        <v>秦浩朗</v>
       </c>
       <c r="J3" s="0">
-        <v>冉懋鑫</v>
+        <v>郑泽铭</v>
       </c>
       <c r="L3" s="0">
-        <v>周晗</v>
+        <v>陈霞</v>
       </c>
     </row>
     <row r="4">
@@ -1051,22 +1051,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="D4" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="F4" s="0">
         <v>张宝怡</v>
       </c>
-      <c r="D4" s="0">
-        <v>段星同</v>
-      </c>
-      <c r="F4" s="0">
-        <v>曹柏圳</v>
-      </c>
       <c r="H4" s="0">
-        <v>房莉婷</v>
+        <v>单思远</v>
       </c>
       <c r="J4" s="0">
-        <v>韩凤阁</v>
+        <v>陈子伶</v>
       </c>
       <c r="L4" s="0">
-        <v>钟元彪</v>
+        <v>曾可</v>
       </c>
     </row>
     <row r="5">
@@ -1074,22 +1074,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="0">
-        <v>王铭晟</v>
+        <v>孙江坤</v>
       </c>
       <c r="D5" s="0">
+        <v>覃莹</v>
+      </c>
+      <c r="F5" s="0">
+        <v>冉懋鑫</v>
+      </c>
+      <c r="H5" s="0">
         <v>游欣</v>
       </c>
-      <c r="F5" s="0">
-        <v>谢谦益</v>
-      </c>
-      <c r="H5" s="0">
-        <v>王枫睿</v>
-      </c>
       <c r="J5" s="0">
-        <v>邱建华</v>
+        <v>雷利</v>
       </c>
       <c r="L5" s="0">
-        <v>古恩宇</v>
+        <v>朱志涛</v>
       </c>
     </row>
     <row r="6">
@@ -1097,22 +1097,22 @@
         <v>10</v>
       </c>
       <c r="B6" s="0">
-        <v>李金言</v>
+        <v>冼郸</v>
       </c>
       <c r="D6" s="0">
-        <v>文泽豪</v>
+        <v>周晗</v>
       </c>
       <c r="F6" s="0">
-        <v>单思远</v>
+        <v>谢谦益</v>
       </c>
       <c r="H6" s="0">
-        <v>雷利</v>
+        <v>王枫睿</v>
       </c>
       <c r="J6" s="0">
-        <v>周奥灵</v>
+        <v>谭旭君</v>
       </c>
       <c r="L6" s="0">
-        <v>覃莹</v>
+        <v>曹柏圳</v>
       </c>
     </row>
     <row r="7">
@@ -1120,22 +1120,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
+        <v>黄嘉如</v>
+      </c>
+      <c r="D7" s="0">
         <v>尤静宜</v>
       </c>
-      <c r="D7" s="0">
-        <v>李锐涛</v>
-      </c>
       <c r="F7" s="0">
-        <v>谭旭君</v>
+        <v>古恩宇</v>
       </c>
       <c r="H7" s="0">
-        <v>陈维钧</v>
+        <v>李金言</v>
       </c>
       <c r="J7" s="0">
-        <v>陈子伶</v>
+        <v>王铭晟</v>
       </c>
       <c r="L7" s="0">
-        <v>阮丽颖</v>
+        <v>文泽豪</v>
       </c>
     </row>
     <row r="8">
@@ -1143,22 +1143,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>林子越</v>
+        <v>周奥灵</v>
       </c>
       <c r="D8" s="0">
         <v>罗云媛</v>
       </c>
       <c r="F8" s="0">
-        <v>秦浩朗</v>
+        <v>林子越</v>
       </c>
       <c r="H8" s="0">
-        <v>孙江坤</v>
+        <v>利宇涛</v>
       </c>
       <c r="J8" s="0">
-        <v>冼郸</v>
+        <v>房莉婷</v>
       </c>
       <c r="L8" s="0">
-        <v>黄嘉如</v>
+        <v>田敏德</v>
       </c>
     </row>
     <row r="9">
@@ -1166,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0">
-        <v>郑泽铭</v>
+        <v>古兆康</v>
       </c>
       <c r="D9" s="0">
-        <v>朱志涛</v>
+        <v>钟元彪</v>
       </c>
       <c r="J9" s="0">
-        <v>陈霞</v>
+        <v>李锐涛</v>
       </c>
       <c r="L9" s="0">
-        <v>曾可</v>
+        <v>段星同</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>陈维钧</v>
+        <v>谢谦益</v>
       </c>
       <c r="D3" s="0">
-        <v>王元元</v>
+        <v>利宇涛</v>
       </c>
       <c r="F3" s="0">
-        <v>邱建华</v>
+        <v>阮丽颖</v>
       </c>
       <c r="H3" s="0">
+        <v>单思远</v>
+      </c>
+      <c r="J3" s="0">
         <v>秦浩朗</v>
       </c>
-      <c r="J3" s="0">
+      <c r="L3" s="0">
         <v>郑泽铭</v>
-      </c>
-      <c r="L3" s="0">
-        <v>陈霞</v>
       </c>
     </row>
     <row r="4">
@@ -1051,22 +1051,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>阮丽颖</v>
+        <v>田敏德</v>
       </c>
       <c r="D4" s="0">
-        <v>韩凤阁</v>
+        <v>朱志涛</v>
       </c>
       <c r="F4" s="0">
-        <v>张宝怡</v>
+        <v>谭旭君</v>
       </c>
       <c r="H4" s="0">
-        <v>单思远</v>
+        <v>邱建华</v>
       </c>
       <c r="J4" s="0">
-        <v>陈子伶</v>
+        <v>李金言</v>
       </c>
       <c r="L4" s="0">
-        <v>曾可</v>
+        <v>王铭晟</v>
       </c>
     </row>
     <row r="5">
@@ -1074,22 +1074,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="0">
-        <v>孙江坤</v>
+        <v>曾可</v>
       </c>
       <c r="D5" s="0">
-        <v>覃莹</v>
+        <v>张宝怡</v>
       </c>
       <c r="F5" s="0">
-        <v>冉懋鑫</v>
+        <v>李锐涛</v>
       </c>
       <c r="H5" s="0">
         <v>游欣</v>
       </c>
       <c r="J5" s="0">
-        <v>雷利</v>
+        <v>陈维钧</v>
       </c>
       <c r="L5" s="0">
-        <v>朱志涛</v>
+        <v>罗云媛</v>
       </c>
     </row>
     <row r="6">
@@ -1097,19 +1097,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="0">
-        <v>冼郸</v>
+        <v>周晗</v>
       </c>
       <c r="D6" s="0">
-        <v>周晗</v>
+        <v>王枫睿</v>
       </c>
       <c r="F6" s="0">
-        <v>谢谦益</v>
+        <v>陈霞</v>
       </c>
       <c r="H6" s="0">
-        <v>王枫睿</v>
+        <v>黄嘉如</v>
       </c>
       <c r="J6" s="0">
-        <v>谭旭君</v>
+        <v>钟元彪</v>
       </c>
       <c r="L6" s="0">
         <v>曹柏圳</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>黄嘉如</v>
+        <v>冼郸</v>
       </c>
       <c r="D7" s="0">
-        <v>尤静宜</v>
+        <v>韩凤阁</v>
       </c>
       <c r="F7" s="0">
-        <v>古恩宇</v>
+        <v>段星同</v>
       </c>
       <c r="H7" s="0">
-        <v>李金言</v>
+        <v>林子越</v>
       </c>
       <c r="J7" s="0">
-        <v>王铭晟</v>
+        <v>王元元</v>
       </c>
       <c r="L7" s="0">
         <v>文泽豪</v>
@@ -1143,22 +1143,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
+        <v>雷利</v>
+      </c>
+      <c r="D8" s="0">
         <v>周奥灵</v>
       </c>
-      <c r="D8" s="0">
-        <v>罗云媛</v>
-      </c>
       <c r="F8" s="0">
-        <v>林子越</v>
+        <v>陈子伶</v>
       </c>
       <c r="H8" s="0">
-        <v>利宇涛</v>
+        <v>覃莹</v>
       </c>
       <c r="J8" s="0">
-        <v>房莉婷</v>
+        <v>古恩宇</v>
       </c>
       <c r="L8" s="0">
-        <v>田敏德</v>
+        <v>孙江坤</v>
       </c>
     </row>
     <row r="9">
@@ -1166,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0">
+        <v>房莉婷</v>
+      </c>
+      <c r="D9" s="0">
+        <v>尤静宜</v>
+      </c>
+      <c r="J9" s="0">
+        <v>冉懋鑫</v>
+      </c>
+      <c r="L9" s="0">
         <v>古兆康</v>
-      </c>
-      <c r="D9" s="0">
-        <v>钟元彪</v>
-      </c>
-      <c r="J9" s="0">
-        <v>李锐涛</v>
-      </c>
-      <c r="L9" s="0">
-        <v>段星同</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>谢谦益</v>
+        <v>王枫睿</v>
       </c>
       <c r="D3" s="0">
-        <v>利宇涛</v>
+        <v>王元元</v>
       </c>
       <c r="F3" s="0">
-        <v>阮丽颖</v>
+        <v>单思远</v>
       </c>
       <c r="H3" s="0">
-        <v>单思远</v>
+        <v>段星同</v>
       </c>
       <c r="J3" s="0">
-        <v>秦浩朗</v>
+        <v>田敏德</v>
       </c>
       <c r="L3" s="0">
-        <v>郑泽铭</v>
+        <v>张宝怡</v>
       </c>
     </row>
     <row r="4">
@@ -1051,22 +1051,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>田敏德</v>
+        <v>尤静宜</v>
       </c>
       <c r="D4" s="0">
-        <v>朱志涛</v>
+        <v>雷利</v>
       </c>
       <c r="F4" s="0">
+        <v>李锐涛</v>
+      </c>
+      <c r="H4" s="0">
         <v>谭旭君</v>
       </c>
-      <c r="H4" s="0">
-        <v>邱建华</v>
-      </c>
       <c r="J4" s="0">
-        <v>李金言</v>
+        <v>罗云媛</v>
       </c>
       <c r="L4" s="0">
-        <v>王铭晟</v>
+        <v>房莉婷</v>
       </c>
     </row>
     <row r="5">
@@ -1074,22 +1074,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="0">
-        <v>曾可</v>
+        <v>周奥灵</v>
       </c>
       <c r="D5" s="0">
-        <v>张宝怡</v>
+        <v>韩凤阁</v>
       </c>
       <c r="F5" s="0">
-        <v>李锐涛</v>
+        <v>郑泽铭</v>
       </c>
       <c r="H5" s="0">
-        <v>游欣</v>
+        <v>秦浩朗</v>
       </c>
       <c r="J5" s="0">
-        <v>陈维钧</v>
+        <v>钟元彪</v>
       </c>
       <c r="L5" s="0">
-        <v>罗云媛</v>
+        <v>陈子伶</v>
       </c>
     </row>
     <row r="6">
@@ -1097,19 +1097,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="0">
-        <v>周晗</v>
+        <v>利宇涛</v>
       </c>
       <c r="D6" s="0">
-        <v>王枫睿</v>
+        <v>陈维钧</v>
       </c>
       <c r="F6" s="0">
-        <v>陈霞</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="H6" s="0">
+        <v>林子越</v>
+      </c>
+      <c r="J6" s="0">
         <v>黄嘉如</v>
-      </c>
-      <c r="J6" s="0">
-        <v>钟元彪</v>
       </c>
       <c r="L6" s="0">
         <v>曹柏圳</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>冼郸</v>
+        <v>阮丽颖</v>
       </c>
       <c r="D7" s="0">
-        <v>韩凤阁</v>
+        <v>邱建华</v>
       </c>
       <c r="F7" s="0">
-        <v>段星同</v>
+        <v>曾可</v>
       </c>
       <c r="H7" s="0">
-        <v>林子越</v>
+        <v>王铭晟</v>
       </c>
       <c r="J7" s="0">
-        <v>王元元</v>
+        <v>朱志涛</v>
       </c>
       <c r="L7" s="0">
         <v>文泽豪</v>
@@ -1143,22 +1143,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>雷利</v>
+        <v>陈霞</v>
       </c>
       <c r="D8" s="0">
-        <v>周奥灵</v>
+        <v>李金言</v>
       </c>
       <c r="F8" s="0">
-        <v>陈子伶</v>
+        <v>冼郸</v>
       </c>
       <c r="H8" s="0">
-        <v>覃莹</v>
+        <v>谢谦益</v>
       </c>
       <c r="J8" s="0">
         <v>古恩宇</v>
       </c>
       <c r="L8" s="0">
-        <v>孙江坤</v>
+        <v>古兆康</v>
       </c>
     </row>
     <row r="9">
@@ -1166,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0">
-        <v>房莉婷</v>
+        <v>周晗</v>
       </c>
       <c r="D9" s="0">
-        <v>尤静宜</v>
+        <v>覃莹</v>
       </c>
       <c r="J9" s="0">
-        <v>冉懋鑫</v>
+        <v>孙江坤</v>
       </c>
       <c r="L9" s="0">
-        <v>古兆康</v>
+        <v>游欣</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>王枫睿</v>
+        <v>房莉婷</v>
       </c>
       <c r="D3" s="0">
-        <v>王元元</v>
+        <v>曾可</v>
       </c>
       <c r="F3" s="0">
-        <v>单思远</v>
+        <v>雷利</v>
       </c>
       <c r="H3" s="0">
-        <v>段星同</v>
+        <v>古恩宇</v>
       </c>
       <c r="J3" s="0">
-        <v>田敏德</v>
+        <v>黄嘉如</v>
       </c>
       <c r="L3" s="0">
-        <v>张宝怡</v>
+        <v>邱建华</v>
       </c>
     </row>
     <row r="4">
@@ -1051,22 +1051,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>尤静宜</v>
+        <v>朱志涛</v>
       </c>
       <c r="D4" s="0">
-        <v>雷利</v>
+        <v>王铭晟</v>
       </c>
       <c r="F4" s="0">
-        <v>李锐涛</v>
+        <v>谢谦益</v>
       </c>
       <c r="H4" s="0">
-        <v>谭旭君</v>
+        <v>孙江坤</v>
       </c>
       <c r="J4" s="0">
-        <v>罗云媛</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="L4" s="0">
-        <v>房莉婷</v>
+        <v>陈子伶</v>
       </c>
     </row>
     <row r="5">
@@ -1074,22 +1074,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="D5" s="0">
+        <v>古兆康</v>
+      </c>
+      <c r="F5" s="0">
         <v>周奥灵</v>
       </c>
-      <c r="D5" s="0">
-        <v>韩凤阁</v>
-      </c>
-      <c r="F5" s="0">
-        <v>郑泽铭</v>
-      </c>
       <c r="H5" s="0">
-        <v>秦浩朗</v>
+        <v>李锐涛</v>
       </c>
       <c r="J5" s="0">
-        <v>钟元彪</v>
+        <v>覃莹</v>
       </c>
       <c r="L5" s="0">
-        <v>陈子伶</v>
+        <v>阮丽颖</v>
       </c>
     </row>
     <row r="6">
@@ -1097,19 +1097,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="0">
-        <v>利宇涛</v>
+        <v>游欣</v>
       </c>
       <c r="D6" s="0">
-        <v>陈维钧</v>
+        <v>田敏德</v>
       </c>
       <c r="F6" s="0">
-        <v>冉懋鑫</v>
+        <v>段星同</v>
       </c>
       <c r="H6" s="0">
-        <v>林子越</v>
+        <v>李金言</v>
       </c>
       <c r="J6" s="0">
-        <v>黄嘉如</v>
+        <v>周晗</v>
       </c>
       <c r="L6" s="0">
         <v>曹柏圳</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>阮丽颖</v>
+        <v>王枫睿</v>
       </c>
       <c r="D7" s="0">
-        <v>邱建华</v>
+        <v>钟元彪</v>
       </c>
       <c r="F7" s="0">
-        <v>曾可</v>
+        <v>冼郸</v>
       </c>
       <c r="H7" s="0">
-        <v>王铭晟</v>
+        <v>秦浩朗</v>
       </c>
       <c r="J7" s="0">
-        <v>朱志涛</v>
+        <v>郑泽铭</v>
       </c>
       <c r="L7" s="0">
         <v>文泽豪</v>
@@ -1143,22 +1143,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>陈霞</v>
+        <v>罗云媛</v>
       </c>
       <c r="D8" s="0">
-        <v>李金言</v>
+        <v>张宝怡</v>
       </c>
       <c r="F8" s="0">
-        <v>冼郸</v>
+        <v>谭旭君</v>
       </c>
       <c r="H8" s="0">
-        <v>谢谦益</v>
+        <v>王元元</v>
       </c>
       <c r="J8" s="0">
-        <v>古恩宇</v>
+        <v>单思远</v>
       </c>
       <c r="L8" s="0">
-        <v>古兆康</v>
+        <v>尤静宜</v>
       </c>
     </row>
     <row r="9">
@@ -1166,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0">
-        <v>周晗</v>
+        <v>陈霞</v>
       </c>
       <c r="D9" s="0">
-        <v>覃莹</v>
+        <v>利宇涛</v>
       </c>
       <c r="J9" s="0">
-        <v>孙江坤</v>
+        <v>林子越</v>
       </c>
       <c r="L9" s="0">
-        <v>游欣</v>
+        <v>陈维钧</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>房莉婷</v>
+        <v>陈霞</v>
       </c>
       <c r="D3" s="0">
-        <v>曾可</v>
+        <v>王元元</v>
       </c>
       <c r="F3" s="0">
-        <v>雷利</v>
+        <v>王铭晟</v>
       </c>
       <c r="H3" s="0">
-        <v>古恩宇</v>
+        <v>邱建华</v>
       </c>
       <c r="J3" s="0">
-        <v>黄嘉如</v>
+        <v>朱志涛</v>
       </c>
       <c r="L3" s="0">
-        <v>邱建华</v>
+        <v>尤静宜</v>
       </c>
     </row>
     <row r="4">
@@ -1051,22 +1051,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>朱志涛</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="D4" s="0">
-        <v>王铭晟</v>
+        <v>周奥灵</v>
       </c>
       <c r="F4" s="0">
-        <v>谢谦益</v>
+        <v>田敏德</v>
       </c>
       <c r="H4" s="0">
-        <v>孙江坤</v>
+        <v>古恩宇</v>
       </c>
       <c r="J4" s="0">
-        <v>冉懋鑫</v>
+        <v>覃莹</v>
       </c>
       <c r="L4" s="0">
-        <v>陈子伶</v>
+        <v>林子越</v>
       </c>
     </row>
     <row r="5">
@@ -1074,22 +1074,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="0">
-        <v>韩凤阁</v>
+        <v>张宝怡</v>
       </c>
       <c r="D5" s="0">
+        <v>陈维钧</v>
+      </c>
+      <c r="F5" s="0">
+        <v>罗云媛</v>
+      </c>
+      <c r="H5" s="0">
+        <v>孙江坤</v>
+      </c>
+      <c r="J5" s="0">
         <v>古兆康</v>
       </c>
-      <c r="F5" s="0">
-        <v>周奥灵</v>
-      </c>
-      <c r="H5" s="0">
-        <v>李锐涛</v>
-      </c>
-      <c r="J5" s="0">
-        <v>覃莹</v>
-      </c>
       <c r="L5" s="0">
-        <v>阮丽颖</v>
+        <v>房莉婷</v>
       </c>
     </row>
     <row r="6">
@@ -1100,16 +1100,16 @@
         <v>游欣</v>
       </c>
       <c r="D6" s="0">
-        <v>田敏德</v>
+        <v>陈子伶</v>
       </c>
       <c r="F6" s="0">
-        <v>段星同</v>
+        <v>李锐涛</v>
       </c>
       <c r="H6" s="0">
-        <v>李金言</v>
+        <v>王枫睿</v>
       </c>
       <c r="J6" s="0">
-        <v>周晗</v>
+        <v>钟元彪</v>
       </c>
       <c r="L6" s="0">
         <v>曹柏圳</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>王枫睿</v>
+        <v>雷利</v>
       </c>
       <c r="D7" s="0">
-        <v>钟元彪</v>
+        <v>利宇涛</v>
       </c>
       <c r="F7" s="0">
-        <v>冼郸</v>
+        <v>郑泽铭</v>
       </c>
       <c r="H7" s="0">
         <v>秦浩朗</v>
       </c>
       <c r="J7" s="0">
-        <v>郑泽铭</v>
+        <v>谢谦益</v>
       </c>
       <c r="L7" s="0">
         <v>文泽豪</v>
@@ -1143,22 +1143,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>罗云媛</v>
+        <v>冼郸</v>
       </c>
       <c r="D8" s="0">
-        <v>张宝怡</v>
+        <v>周晗</v>
       </c>
       <c r="F8" s="0">
+        <v>单思远</v>
+      </c>
+      <c r="H8" s="0">
         <v>谭旭君</v>
       </c>
-      <c r="H8" s="0">
-        <v>王元元</v>
-      </c>
       <c r="J8" s="0">
-        <v>单思远</v>
+        <v>李金言</v>
       </c>
       <c r="L8" s="0">
-        <v>尤静宜</v>
+        <v>段星同</v>
       </c>
     </row>
     <row r="9">
@@ -1166,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0">
-        <v>陈霞</v>
+        <v>韩凤阁</v>
       </c>
       <c r="D9" s="0">
-        <v>利宇涛</v>
+        <v>曾可</v>
       </c>
       <c r="J9" s="0">
-        <v>林子越</v>
+        <v>黄嘉如</v>
       </c>
       <c r="L9" s="0">
-        <v>陈维钧</v>
+        <v>阮丽颖</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>陈霞</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="D3" s="0">
-        <v>王元元</v>
+        <v>阮丽颖</v>
       </c>
       <c r="F3" s="0">
-        <v>王铭晟</v>
+        <v>尤静宜</v>
       </c>
       <c r="H3" s="0">
-        <v>邱建华</v>
+        <v>李金言</v>
       </c>
       <c r="J3" s="0">
-        <v>朱志涛</v>
+        <v>谭旭君</v>
       </c>
       <c r="L3" s="0">
-        <v>尤静宜</v>
+        <v>曾可</v>
       </c>
     </row>
     <row r="4">
@@ -1051,22 +1051,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>冉懋鑫</v>
+        <v>罗云媛</v>
       </c>
       <c r="D4" s="0">
-        <v>周奥灵</v>
+        <v>雷利</v>
       </c>
       <c r="F4" s="0">
-        <v>田敏德</v>
+        <v>段星同</v>
       </c>
       <c r="H4" s="0">
-        <v>古恩宇</v>
+        <v>陈霞</v>
       </c>
       <c r="J4" s="0">
-        <v>覃莹</v>
+        <v>游欣</v>
       </c>
       <c r="L4" s="0">
-        <v>林子越</v>
+        <v>王元元</v>
       </c>
     </row>
     <row r="5">
@@ -1074,22 +1074,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="0">
-        <v>张宝怡</v>
+        <v>朱志涛</v>
       </c>
       <c r="D5" s="0">
-        <v>陈维钧</v>
+        <v>陈子伶</v>
       </c>
       <c r="F5" s="0">
-        <v>罗云媛</v>
+        <v>古恩宇</v>
       </c>
       <c r="H5" s="0">
         <v>孙江坤</v>
       </c>
       <c r="J5" s="0">
-        <v>古兆康</v>
+        <v>韩凤阁</v>
       </c>
       <c r="L5" s="0">
-        <v>房莉婷</v>
+        <v>覃莹</v>
       </c>
     </row>
     <row r="6">
@@ -1097,19 +1097,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="0">
-        <v>游欣</v>
+        <v>谢谦益</v>
       </c>
       <c r="D6" s="0">
-        <v>陈子伶</v>
+        <v>邱建华</v>
       </c>
       <c r="F6" s="0">
-        <v>李锐涛</v>
+        <v>冼郸</v>
       </c>
       <c r="H6" s="0">
-        <v>王枫睿</v>
+        <v>单思远</v>
       </c>
       <c r="J6" s="0">
-        <v>钟元彪</v>
+        <v>田敏德</v>
       </c>
       <c r="L6" s="0">
         <v>曹柏圳</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>雷利</v>
+        <v>古兆康</v>
       </c>
       <c r="D7" s="0">
+        <v>周奥灵</v>
+      </c>
+      <c r="F7" s="0">
         <v>利宇涛</v>
-      </c>
-      <c r="F7" s="0">
-        <v>郑泽铭</v>
       </c>
       <c r="H7" s="0">
         <v>秦浩朗</v>
       </c>
       <c r="J7" s="0">
-        <v>谢谦益</v>
+        <v>郑泽铭</v>
       </c>
       <c r="L7" s="0">
         <v>文泽豪</v>
@@ -1143,22 +1143,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>冼郸</v>
+        <v>陈维钧</v>
       </c>
       <c r="D8" s="0">
+        <v>李锐涛</v>
+      </c>
+      <c r="F8" s="0">
+        <v>黄嘉如</v>
+      </c>
+      <c r="H8" s="0">
         <v>周晗</v>
       </c>
-      <c r="F8" s="0">
-        <v>单思远</v>
-      </c>
-      <c r="H8" s="0">
-        <v>谭旭君</v>
-      </c>
       <c r="J8" s="0">
-        <v>李金言</v>
+        <v>张宝怡</v>
       </c>
       <c r="L8" s="0">
-        <v>段星同</v>
+        <v>房莉婷</v>
       </c>
     </row>
     <row r="9">
@@ -1166,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0">
-        <v>韩凤阁</v>
+        <v>林子越</v>
       </c>
       <c r="D9" s="0">
-        <v>曾可</v>
+        <v>钟元彪</v>
       </c>
       <c r="J9" s="0">
-        <v>黄嘉如</v>
+        <v>王枫睿</v>
       </c>
       <c r="L9" s="0">
-        <v>阮丽颖</v>
+        <v>王铭晟</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>冉懋鑫</v>
+        <v>王铭晟</v>
       </c>
       <c r="D3" s="0">
-        <v>阮丽颖</v>
+        <v>冼郸</v>
       </c>
       <c r="F3" s="0">
-        <v>尤静宜</v>
+        <v>王枫睿</v>
       </c>
       <c r="H3" s="0">
-        <v>李金言</v>
+        <v>周晗</v>
       </c>
       <c r="J3" s="0">
-        <v>谭旭君</v>
+        <v>王元元</v>
       </c>
       <c r="L3" s="0">
-        <v>曾可</v>
+        <v>谢谦益</v>
       </c>
     </row>
     <row r="4">
@@ -1051,22 +1051,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>罗云媛</v>
+        <v>周奥灵</v>
       </c>
       <c r="D4" s="0">
-        <v>雷利</v>
+        <v>利宇涛</v>
       </c>
       <c r="F4" s="0">
-        <v>段星同</v>
+        <v>钟元彪</v>
       </c>
       <c r="H4" s="0">
-        <v>陈霞</v>
+        <v>李金言</v>
       </c>
       <c r="J4" s="0">
-        <v>游欣</v>
+        <v>尤静宜</v>
       </c>
       <c r="L4" s="0">
-        <v>王元元</v>
+        <v>单思远</v>
       </c>
     </row>
     <row r="5">
@@ -1074,22 +1074,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="0">
-        <v>朱志涛</v>
+        <v>李锐涛</v>
       </c>
       <c r="D5" s="0">
-        <v>陈子伶</v>
+        <v>黄嘉如</v>
       </c>
       <c r="F5" s="0">
+        <v>陈霞</v>
+      </c>
+      <c r="H5" s="0">
+        <v>罗云媛</v>
+      </c>
+      <c r="J5" s="0">
         <v>古恩宇</v>
       </c>
-      <c r="H5" s="0">
-        <v>孙江坤</v>
-      </c>
-      <c r="J5" s="0">
-        <v>韩凤阁</v>
-      </c>
       <c r="L5" s="0">
-        <v>覃莹</v>
+        <v>林子越</v>
       </c>
     </row>
     <row r="6">
@@ -1097,22 +1097,22 @@
         <v>10</v>
       </c>
       <c r="B6" s="0">
-        <v>谢谦益</v>
+        <v>文泽豪</v>
       </c>
       <c r="D6" s="0">
-        <v>邱建华</v>
+        <v>韩凤阁</v>
       </c>
       <c r="F6" s="0">
-        <v>冼郸</v>
+        <v>游欣</v>
       </c>
       <c r="H6" s="0">
-        <v>单思远</v>
+        <v>秦浩朗</v>
       </c>
       <c r="J6" s="0">
-        <v>田敏德</v>
+        <v>孙江坤</v>
       </c>
       <c r="L6" s="0">
-        <v>曹柏圳</v>
+        <v>曾可</v>
       </c>
     </row>
     <row r="7">
@@ -1120,22 +1120,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>古兆康</v>
+        <v>朱志涛</v>
       </c>
       <c r="D7" s="0">
-        <v>周奥灵</v>
+        <v>陈维钧</v>
       </c>
       <c r="F7" s="0">
-        <v>利宇涛</v>
+        <v>阮丽颖</v>
       </c>
       <c r="H7" s="0">
-        <v>秦浩朗</v>
+        <v>张宝怡</v>
       </c>
       <c r="J7" s="0">
-        <v>郑泽铭</v>
+        <v>谭旭君</v>
       </c>
       <c r="L7" s="0">
-        <v>文泽豪</v>
+        <v>田敏德</v>
       </c>
     </row>
     <row r="8">
@@ -1143,19 +1143,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>陈维钧</v>
+        <v>郑泽铭</v>
       </c>
       <c r="D8" s="0">
-        <v>李锐涛</v>
+        <v>陈子伶</v>
       </c>
       <c r="F8" s="0">
-        <v>黄嘉如</v>
+        <v>曹柏圳</v>
       </c>
       <c r="H8" s="0">
-        <v>周晗</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="J8" s="0">
-        <v>张宝怡</v>
+        <v>段星同</v>
       </c>
       <c r="L8" s="0">
         <v>房莉婷</v>
@@ -1166,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0">
-        <v>林子越</v>
+        <v>邱建华</v>
       </c>
       <c r="D9" s="0">
-        <v>钟元彪</v>
+        <v>覃莹</v>
       </c>
       <c r="J9" s="0">
-        <v>王枫睿</v>
+        <v>雷利</v>
       </c>
       <c r="L9" s="0">
-        <v>王铭晟</v>
+        <v>古兆康</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>利宇涛</v>
+        <v>孙江坤</v>
       </c>
       <c r="D3" s="0">
         <v>王元元</v>
@@ -1040,10 +1040,10 @@
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>阮丽颖</v>
+        <v>李锐涛</v>
       </c>
       <c r="L3" s="0">
-        <v>王铭晟</v>
+        <v>王枫睿</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>李锐涛</v>
+        <v>单思远</v>
       </c>
       <c r="D4" s="0">
+        <v>罗云媛</v>
+      </c>
+      <c r="F4" s="0">
+        <v>尤静宜</v>
+      </c>
+      <c r="H4" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="J4" s="0">
         <v>陈霞</v>
-      </c>
-      <c r="F4" s="0">
-        <v>张宝怡</v>
-      </c>
-      <c r="H4" s="0">
-        <v>尤静宜</v>
-      </c>
-      <c r="J4" s="0">
-        <v>罗云媛</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1080,13 +1080,13 @@
         <v>田敏德</v>
       </c>
       <c r="F5" s="0">
-        <v>邱建华</v>
+        <v>张宝怡</v>
       </c>
       <c r="H5" s="0">
-        <v>房莉婷</v>
+        <v>王铭晟</v>
       </c>
       <c r="J5" s="0">
-        <v>朱志涛</v>
+        <v>周奥灵</v>
       </c>
       <c r="L5" s="0">
         <v>冼郸</v>
@@ -1103,13 +1103,13 @@
         <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>段星同</v>
+        <v>邱建华</v>
       </c>
       <c r="H6" s="0">
-        <v>周奥灵</v>
+        <v>黄嘉如</v>
       </c>
       <c r="J6" s="0">
-        <v>单思远</v>
+        <v>朱志涛</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1126,7 +1126,7 @@
         <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
-        <v>黄嘉如</v>
+        <v>房莉婷</v>
       </c>
       <c r="H7" s="0">
         <v>韩凤阁</v>
@@ -1149,10 +1149,10 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
+        <v>陈维钧</v>
+      </c>
+      <c r="H8" s="0">
         <v>曹柏圳</v>
-      </c>
-      <c r="H8" s="0">
-        <v>陈维钧</v>
       </c>
       <c r="J8" s="0">
         <v>游欣</v>
@@ -1172,10 +1172,10 @@
         <v>周晗</v>
       </c>
       <c r="J9" s="0">
-        <v>王枫睿</v>
+        <v>利宇涛</v>
       </c>
       <c r="L9" s="0">
-        <v>孙江坤</v>
+        <v>段星同</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>孙江坤</v>
+        <v>利宇涛</v>
       </c>
       <c r="D3" s="0">
         <v>王元元</v>
@@ -1040,10 +1040,10 @@
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>李锐涛</v>
+        <v>阮丽颖</v>
       </c>
       <c r="L3" s="0">
-        <v>王枫睿</v>
+        <v>王铭晟</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>单思远</v>
+        <v>李锐涛</v>
       </c>
       <c r="D4" s="0">
+        <v>陈霞</v>
+      </c>
+      <c r="F4" s="0">
+        <v>张宝怡</v>
+      </c>
+      <c r="H4" s="0">
+        <v>尤静宜</v>
+      </c>
+      <c r="J4" s="0">
         <v>罗云媛</v>
-      </c>
-      <c r="F4" s="0">
-        <v>尤静宜</v>
-      </c>
-      <c r="H4" s="0">
-        <v>阮丽颖</v>
-      </c>
-      <c r="J4" s="0">
-        <v>陈霞</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>田敏德</v>
+        <v>周晗</v>
       </c>
       <c r="F5" s="0">
-        <v>张宝怡</v>
+        <v>邱建华</v>
       </c>
       <c r="H5" s="0">
-        <v>王铭晟</v>
+        <v>周奥灵</v>
       </c>
       <c r="J5" s="0">
-        <v>周奥灵</v>
+        <v>游欣</v>
       </c>
       <c r="L5" s="0">
         <v>冼郸</v>
@@ -1103,13 +1103,13 @@
         <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>邱建华</v>
+        <v>单思远</v>
       </c>
       <c r="H6" s="0">
-        <v>黄嘉如</v>
+        <v>朱志涛</v>
       </c>
       <c r="J6" s="0">
-        <v>朱志涛</v>
+        <v>房莉婷</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1126,10 +1126,10 @@
         <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
-        <v>房莉婷</v>
+        <v>韩凤阁</v>
       </c>
       <c r="H7" s="0">
-        <v>韩凤阁</v>
+        <v>黄嘉如</v>
       </c>
       <c r="J7" s="0">
         <v>冉懋鑫</v>
@@ -1149,13 +1149,13 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
+        <v>曹柏圳</v>
+      </c>
+      <c r="H8" s="0">
         <v>陈维钧</v>
       </c>
-      <c r="H8" s="0">
-        <v>曹柏圳</v>
-      </c>
       <c r="J8" s="0">
-        <v>游欣</v>
+        <v>田敏德</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1169,13 +1169,13 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>周晗</v>
+        <v>段星同</v>
       </c>
       <c r="J9" s="0">
-        <v>利宇涛</v>
+        <v>王枫睿</v>
       </c>
       <c r="L9" s="0">
-        <v>段星同</v>
+        <v>孙江坤</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,13 +1028,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>利宇涛</v>
+        <v>谢谦益</v>
       </c>
       <c r="D3" s="0">
+        <v>李金言</v>
+      </c>
+      <c r="F3" s="0">
         <v>王元元</v>
-      </c>
-      <c r="F3" s="0">
-        <v>李金言</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>周晗</v>
+        <v>朱志涛</v>
       </c>
       <c r="F5" s="0">
         <v>邱建华</v>
       </c>
       <c r="H5" s="0">
+        <v>田敏德</v>
+      </c>
+      <c r="J5" s="0">
         <v>周奥灵</v>
-      </c>
-      <c r="J5" s="0">
-        <v>游欣</v>
       </c>
       <c r="L5" s="0">
         <v>冼郸</v>
@@ -1100,16 +1100,16 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>谢谦益</v>
+        <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>单思远</v>
+        <v>韩凤阁</v>
       </c>
       <c r="H6" s="0">
-        <v>朱志涛</v>
+        <v>黄嘉如</v>
       </c>
       <c r="J6" s="0">
-        <v>房莉婷</v>
+        <v>周晗</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D7" s="0">
+        <v>冉懋鑫</v>
+      </c>
+      <c r="F7" s="0">
+        <v>游欣</v>
+      </c>
+      <c r="H7" s="0">
+        <v>单思远</v>
+      </c>
+      <c r="J7" s="0">
         <v>陈子伶</v>
-      </c>
-      <c r="F7" s="0">
-        <v>韩凤阁</v>
-      </c>
-      <c r="H7" s="0">
-        <v>黄嘉如</v>
-      </c>
-      <c r="J7" s="0">
-        <v>冉懋鑫</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1143,19 +1143,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
+        <v>房莉婷</v>
+      </c>
+      <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
-      <c r="H8" s="0">
+      <c r="J8" s="0">
         <v>陈维钧</v>
-      </c>
-      <c r="J8" s="0">
-        <v>田敏德</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>谢谦益</v>
+        <v>王铭晟</v>
       </c>
       <c r="D3" s="0">
-        <v>李金言</v>
+        <v>阮丽颖</v>
       </c>
       <c r="F3" s="0">
         <v>王元元</v>
@@ -1040,10 +1040,10 @@
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>阮丽颖</v>
+        <v>李金言</v>
       </c>
       <c r="L3" s="0">
-        <v>王铭晟</v>
+        <v>孙江坤</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>李锐涛</v>
+        <v>单思远</v>
       </c>
       <c r="D4" s="0">
-        <v>陈霞</v>
+        <v>罗云媛</v>
       </c>
       <c r="F4" s="0">
         <v>张宝怡</v>
       </c>
       <c r="H4" s="0">
-        <v>尤静宜</v>
+        <v>李锐涛</v>
       </c>
       <c r="J4" s="0">
-        <v>罗云媛</v>
+        <v>陈霞</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,19 +1077,19 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>朱志涛</v>
+        <v>周奥灵</v>
       </c>
       <c r="F5" s="0">
         <v>邱建华</v>
       </c>
       <c r="H5" s="0">
-        <v>田敏德</v>
+        <v>韩凤阁</v>
       </c>
       <c r="J5" s="0">
-        <v>周奥灵</v>
+        <v>朱志涛</v>
       </c>
       <c r="L5" s="0">
-        <v>冼郸</v>
+        <v>尤静宜</v>
       </c>
     </row>
     <row r="6">
@@ -1103,13 +1103,13 @@
         <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>韩凤阁</v>
+        <v>段星同</v>
       </c>
       <c r="H6" s="0">
         <v>黄嘉如</v>
       </c>
       <c r="J6" s="0">
-        <v>周晗</v>
+        <v>田敏德</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,16 +1120,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D7" s="0">
+        <v>冼郸</v>
+      </c>
+      <c r="F7" s="0">
+        <v>房莉婷</v>
+      </c>
+      <c r="H7" s="0">
         <v>冉懋鑫</v>
-      </c>
-      <c r="F7" s="0">
-        <v>游欣</v>
-      </c>
-      <c r="H7" s="0">
-        <v>单思远</v>
       </c>
       <c r="J7" s="0">
         <v>陈子伶</v>
@@ -1143,13 +1143,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>房莉婷</v>
+        <v>游欣</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
@@ -1169,13 +1169,13 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>段星同</v>
+        <v>周晗</v>
       </c>
       <c r="J9" s="0">
+        <v>谢谦益</v>
+      </c>
+      <c r="L9" s="0">
         <v>王枫睿</v>
-      </c>
-      <c r="L9" s="0">
-        <v>孙江坤</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1034,16 +1034,16 @@
         <v>阮丽颖</v>
       </c>
       <c r="F3" s="0">
-        <v>王元元</v>
+        <v>李金言</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>李金言</v>
+        <v>王元元</v>
       </c>
       <c r="L3" s="0">
-        <v>孙江坤</v>
+        <v>利宇涛</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>单思远</v>
+        <v>李锐涛</v>
       </c>
       <c r="D4" s="0">
-        <v>罗云媛</v>
+        <v>陈霞</v>
       </c>
       <c r="F4" s="0">
         <v>张宝怡</v>
       </c>
       <c r="H4" s="0">
-        <v>李锐涛</v>
+        <v>尤静宜</v>
       </c>
       <c r="J4" s="0">
-        <v>陈霞</v>
+        <v>罗云媛</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,19 +1077,19 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>周奥灵</v>
+        <v>游欣</v>
       </c>
       <c r="F5" s="0">
         <v>邱建华</v>
       </c>
       <c r="H5" s="0">
-        <v>韩凤阁</v>
+        <v>朱志涛</v>
       </c>
       <c r="J5" s="0">
-        <v>朱志涛</v>
+        <v>田敏德</v>
       </c>
       <c r="L5" s="0">
-        <v>尤静宜</v>
+        <v>冼郸</v>
       </c>
     </row>
     <row r="6">
@@ -1100,16 +1100,16 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>利宇涛</v>
+        <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>段星同</v>
+        <v>周奥灵</v>
       </c>
       <c r="H6" s="0">
         <v>黄嘉如</v>
       </c>
       <c r="J6" s="0">
-        <v>田敏德</v>
+        <v>房莉婷</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D7" s="0">
-        <v>冼郸</v>
+        <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
-        <v>房莉婷</v>
+        <v>单思远</v>
       </c>
       <c r="H7" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="J7" s="0">
         <v>冉懋鑫</v>
-      </c>
-      <c r="J7" s="0">
-        <v>陈子伶</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1143,19 +1143,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>游欣</v>
+        <v>曹柏圳</v>
       </c>
       <c r="H8" s="0">
-        <v>曹柏圳</v>
+        <v>陈维钧</v>
       </c>
       <c r="J8" s="0">
-        <v>陈维钧</v>
+        <v>段星同</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1172,10 +1172,10 @@
         <v>周晗</v>
       </c>
       <c r="J9" s="0">
-        <v>谢谦益</v>
+        <v>王枫睿</v>
       </c>
       <c r="L9" s="0">
-        <v>王枫睿</v>
+        <v>孙江坤</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>李锐涛</v>
+        <v>单思远</v>
       </c>
       <c r="D4" s="0">
-        <v>陈霞</v>
+        <v>罗云媛</v>
       </c>
       <c r="F4" s="0">
         <v>张宝怡</v>
       </c>
       <c r="H4" s="0">
-        <v>尤静宜</v>
+        <v>李锐涛</v>
       </c>
       <c r="J4" s="0">
-        <v>罗云媛</v>
+        <v>陈霞</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,19 +1077,19 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>游欣</v>
+        <v>周奥灵</v>
       </c>
       <c r="F5" s="0">
         <v>邱建华</v>
       </c>
       <c r="H5" s="0">
-        <v>朱志涛</v>
+        <v>韩凤阁</v>
       </c>
       <c r="J5" s="0">
         <v>田敏德</v>
       </c>
       <c r="L5" s="0">
-        <v>冼郸</v>
+        <v>尤静宜</v>
       </c>
     </row>
     <row r="6">
@@ -1103,13 +1103,13 @@
         <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>周奥灵</v>
+        <v>房莉婷</v>
       </c>
       <c r="H6" s="0">
         <v>黄嘉如</v>
       </c>
       <c r="J6" s="0">
-        <v>房莉婷</v>
+        <v>段星同</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1126,13 +1126,13 @@
         <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
-        <v>单思远</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="H7" s="0">
-        <v>韩凤阁</v>
+        <v>朱志涛</v>
       </c>
       <c r="J7" s="0">
-        <v>冉懋鑫</v>
+        <v>冼郸</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1149,13 +1149,13 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
+        <v>游欣</v>
+      </c>
+      <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
-      <c r="H8" s="0">
+      <c r="J8" s="0">
         <v>陈维钧</v>
-      </c>
-      <c r="J8" s="0">
-        <v>段星同</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1043,7 +1043,7 @@
         <v>王元元</v>
       </c>
       <c r="L3" s="0">
-        <v>利宇涛</v>
+        <v>谢谦益</v>
       </c>
     </row>
     <row r="4">
@@ -1057,7 +1057,7 @@
         <v>罗云媛</v>
       </c>
       <c r="F4" s="0">
-        <v>张宝怡</v>
+        <v>尤静宜</v>
       </c>
       <c r="H4" s="0">
         <v>李锐涛</v>
@@ -1077,19 +1077,19 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>周奥灵</v>
+        <v>田敏德</v>
       </c>
       <c r="F5" s="0">
-        <v>邱建华</v>
+        <v>张宝怡</v>
       </c>
       <c r="H5" s="0">
-        <v>韩凤阁</v>
+        <v>房莉婷</v>
       </c>
       <c r="J5" s="0">
-        <v>田敏德</v>
+        <v>朱志涛</v>
       </c>
       <c r="L5" s="0">
-        <v>尤静宜</v>
+        <v>冼郸</v>
       </c>
     </row>
     <row r="6">
@@ -1100,16 +1100,16 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>谢谦益</v>
+        <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>房莉婷</v>
+        <v>邱建华</v>
       </c>
       <c r="H6" s="0">
-        <v>黄嘉如</v>
+        <v>段星同</v>
       </c>
       <c r="J6" s="0">
-        <v>段星同</v>
+        <v>周奥灵</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1126,13 +1126,13 @@
         <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
+        <v>黄嘉如</v>
+      </c>
+      <c r="H7" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="J7" s="0">
         <v>冉懋鑫</v>
-      </c>
-      <c r="H7" s="0">
-        <v>朱志涛</v>
-      </c>
-      <c r="J7" s="0">
-        <v>冼郸</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1149,13 +1149,13 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
+        <v>曹柏圳</v>
+      </c>
+      <c r="H8" s="0">
+        <v>陈维钧</v>
+      </c>
+      <c r="J8" s="0">
         <v>游欣</v>
-      </c>
-      <c r="H8" s="0">
-        <v>曹柏圳</v>
-      </c>
-      <c r="J8" s="0">
-        <v>陈维钧</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1172,10 +1172,10 @@
         <v>周晗</v>
       </c>
       <c r="J9" s="0">
+        <v>孙江坤</v>
+      </c>
+      <c r="L9" s="0">
         <v>王枫睿</v>
-      </c>
-      <c r="L9" s="0">
-        <v>孙江坤</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>王铭晟</v>
+        <v>王枫睿</v>
       </c>
       <c r="D3" s="0">
-        <v>阮丽颖</v>
+        <v>王元元</v>
       </c>
       <c r="F3" s="0">
         <v>李金言</v>
@@ -1040,10 +1040,10 @@
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>王元元</v>
+        <v>阮丽颖</v>
       </c>
       <c r="L3" s="0">
-        <v>谢谦益</v>
+        <v>王铭晟</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>单思远</v>
+        <v>李锐涛</v>
       </c>
       <c r="D4" s="0">
+        <v>陈霞</v>
+      </c>
+      <c r="F4" s="0">
+        <v>张宝怡</v>
+      </c>
+      <c r="H4" s="0">
+        <v>尤静宜</v>
+      </c>
+      <c r="J4" s="0">
         <v>罗云媛</v>
-      </c>
-      <c r="F4" s="0">
-        <v>尤静宜</v>
-      </c>
-      <c r="H4" s="0">
-        <v>李锐涛</v>
-      </c>
-      <c r="J4" s="0">
-        <v>陈霞</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,13 +1077,13 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>田敏德</v>
+        <v>段星同</v>
       </c>
       <c r="F5" s="0">
-        <v>张宝怡</v>
+        <v>邱建华</v>
       </c>
       <c r="H5" s="0">
-        <v>房莉婷</v>
+        <v>游欣</v>
       </c>
       <c r="J5" s="0">
         <v>朱志涛</v>
@@ -1103,13 +1103,13 @@
         <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>邱建华</v>
+        <v>房莉婷</v>
       </c>
       <c r="H6" s="0">
-        <v>段星同</v>
+        <v>单思远</v>
       </c>
       <c r="J6" s="0">
-        <v>周奥灵</v>
+        <v>田敏德</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D7" s="0">
+        <v>冉懋鑫</v>
+      </c>
+      <c r="F7" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="H7" s="0">
+        <v>周奥灵</v>
+      </c>
+      <c r="J7" s="0">
         <v>陈子伶</v>
-      </c>
-      <c r="F7" s="0">
-        <v>黄嘉如</v>
-      </c>
-      <c r="H7" s="0">
-        <v>韩凤阁</v>
-      </c>
-      <c r="J7" s="0">
-        <v>冉懋鑫</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1143,19 +1143,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
+        <v>黄嘉如</v>
+      </c>
+      <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
-      <c r="H8" s="0">
+      <c r="J8" s="0">
         <v>陈维钧</v>
-      </c>
-      <c r="J8" s="0">
-        <v>游欣</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1172,10 +1172,10 @@
         <v>周晗</v>
       </c>
       <c r="J9" s="0">
+        <v>谢谦益</v>
+      </c>
+      <c r="L9" s="0">
         <v>孙江坤</v>
-      </c>
-      <c r="L9" s="0">
-        <v>王枫睿</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>王枫睿</v>
+        <v>孙江坤</v>
       </c>
       <c r="D3" s="0">
         <v>王元元</v>
@@ -1040,10 +1040,10 @@
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>阮丽颖</v>
+        <v>李锐涛</v>
       </c>
       <c r="L3" s="0">
-        <v>王铭晟</v>
+        <v>利宇涛</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>李锐涛</v>
+        <v>单思远</v>
       </c>
       <c r="D4" s="0">
+        <v>罗云媛</v>
+      </c>
+      <c r="F4" s="0">
+        <v>尤静宜</v>
+      </c>
+      <c r="H4" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="J4" s="0">
         <v>陈霞</v>
-      </c>
-      <c r="F4" s="0">
-        <v>张宝怡</v>
-      </c>
-      <c r="H4" s="0">
-        <v>尤静宜</v>
-      </c>
-      <c r="J4" s="0">
-        <v>罗云媛</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>段星同</v>
+        <v>朱志涛</v>
       </c>
       <c r="F5" s="0">
-        <v>邱建华</v>
+        <v>韩凤阁</v>
       </c>
       <c r="H5" s="0">
-        <v>游欣</v>
+        <v>王铭晟</v>
       </c>
       <c r="J5" s="0">
-        <v>朱志涛</v>
+        <v>房莉婷</v>
       </c>
       <c r="L5" s="0">
         <v>冼郸</v>
@@ -1100,13 +1100,13 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>利宇涛</v>
+        <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>房莉婷</v>
+        <v>黄嘉如</v>
       </c>
       <c r="H6" s="0">
-        <v>单思远</v>
+        <v>游欣</v>
       </c>
       <c r="J6" s="0">
         <v>田敏德</v>
@@ -1126,7 +1126,7 @@
         <v>冉懋鑫</v>
       </c>
       <c r="F7" s="0">
-        <v>韩凤阁</v>
+        <v>张宝怡</v>
       </c>
       <c r="H7" s="0">
         <v>周奥灵</v>
@@ -1149,7 +1149,7 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>黄嘉如</v>
+        <v>邱建华</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
@@ -1172,10 +1172,10 @@
         <v>周晗</v>
       </c>
       <c r="J9" s="0">
-        <v>谢谦益</v>
+        <v>段星同</v>
       </c>
       <c r="L9" s="0">
-        <v>孙江坤</v>
+        <v>王枫睿</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>孙江坤</v>
+        <v>王铭晟</v>
       </c>
       <c r="D3" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="F3" s="0">
         <v>王元元</v>
-      </c>
-      <c r="F3" s="0">
-        <v>李金言</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>李锐涛</v>
+        <v>李金言</v>
       </c>
       <c r="L3" s="0">
-        <v>利宇涛</v>
+        <v>谢谦益</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>单思远</v>
+        <v>李锐涛</v>
       </c>
       <c r="D4" s="0">
-        <v>罗云媛</v>
+        <v>陈霞</v>
       </c>
       <c r="F4" s="0">
         <v>尤静宜</v>
       </c>
       <c r="H4" s="0">
-        <v>阮丽颖</v>
+        <v>张宝怡</v>
       </c>
       <c r="J4" s="0">
-        <v>陈霞</v>
+        <v>罗云媛</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
+        <v>周奥灵</v>
+      </c>
+      <c r="F5" s="0">
         <v>朱志涛</v>
       </c>
-      <c r="F5" s="0">
-        <v>韩凤阁</v>
-      </c>
       <c r="H5" s="0">
-        <v>王铭晟</v>
+        <v>邱建华</v>
       </c>
       <c r="J5" s="0">
-        <v>房莉婷</v>
+        <v>单思远</v>
       </c>
       <c r="L5" s="0">
         <v>冼郸</v>
@@ -1100,13 +1100,13 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>谢谦益</v>
+        <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
+        <v>周晗</v>
+      </c>
+      <c r="H6" s="0">
         <v>黄嘉如</v>
-      </c>
-      <c r="H6" s="0">
-        <v>游欣</v>
       </c>
       <c r="J6" s="0">
         <v>田敏德</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D7" s="0">
+        <v>陈子伶</v>
+      </c>
+      <c r="F7" s="0">
+        <v>房莉婷</v>
+      </c>
+      <c r="H7" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="J7" s="0">
         <v>冉懋鑫</v>
-      </c>
-      <c r="F7" s="0">
-        <v>张宝怡</v>
-      </c>
-      <c r="H7" s="0">
-        <v>周奥灵</v>
-      </c>
-      <c r="J7" s="0">
-        <v>陈子伶</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1143,19 +1143,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>邱建华</v>
+        <v>陈维钧</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>陈维钧</v>
+        <v>游欣</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1169,10 +1169,10 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>周晗</v>
+        <v>段星同</v>
       </c>
       <c r="J9" s="0">
-        <v>段星同</v>
+        <v>孙江坤</v>
       </c>
       <c r="L9" s="0">
         <v>王枫睿</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1043,7 +1043,7 @@
         <v>李金言</v>
       </c>
       <c r="L3" s="0">
-        <v>谢谦益</v>
+        <v>王枫睿</v>
       </c>
     </row>
     <row r="4">
@@ -1057,10 +1057,10 @@
         <v>陈霞</v>
       </c>
       <c r="F4" s="0">
-        <v>尤静宜</v>
+        <v>黄嘉如</v>
       </c>
       <c r="H4" s="0">
-        <v>张宝怡</v>
+        <v>韩凤阁</v>
       </c>
       <c r="J4" s="0">
         <v>罗云媛</v>
@@ -1077,19 +1077,19 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>周奥灵</v>
+        <v>朱志涛</v>
       </c>
       <c r="F5" s="0">
-        <v>朱志涛</v>
+        <v>游欣</v>
       </c>
       <c r="H5" s="0">
-        <v>邱建华</v>
+        <v>房莉婷</v>
       </c>
       <c r="J5" s="0">
-        <v>单思远</v>
+        <v>尤静宜</v>
       </c>
       <c r="L5" s="0">
-        <v>冼郸</v>
+        <v>孙江坤</v>
       </c>
     </row>
     <row r="6">
@@ -1103,13 +1103,13 @@
         <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>周晗</v>
+        <v>周奥灵</v>
       </c>
       <c r="H6" s="0">
-        <v>黄嘉如</v>
+        <v>邱建华</v>
       </c>
       <c r="J6" s="0">
-        <v>田敏德</v>
+        <v>单思远</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D7" s="0">
         <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
-        <v>房莉婷</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="H7" s="0">
-        <v>韩凤阁</v>
+        <v>张宝怡</v>
       </c>
       <c r="J7" s="0">
-        <v>冉懋鑫</v>
+        <v>冼郸</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1143,19 +1143,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
+        <v>曹柏圳</v>
+      </c>
+      <c r="H8" s="0">
         <v>陈维钧</v>
       </c>
-      <c r="H8" s="0">
-        <v>曹柏圳</v>
-      </c>
       <c r="J8" s="0">
-        <v>游欣</v>
+        <v>田敏德</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1169,13 +1169,13 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
+        <v>周晗</v>
+      </c>
+      <c r="J9" s="0">
         <v>段星同</v>
       </c>
-      <c r="J9" s="0">
-        <v>孙江坤</v>
-      </c>
       <c r="L9" s="0">
-        <v>王枫睿</v>
+        <v>谢谦益</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1034,16 +1034,16 @@
         <v>阮丽颖</v>
       </c>
       <c r="F3" s="0">
-        <v>王元元</v>
+        <v>李金言</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>李金言</v>
+        <v>王元元</v>
       </c>
       <c r="L3" s="0">
-        <v>王枫睿</v>
+        <v>段星同</v>
       </c>
     </row>
     <row r="4">
@@ -1057,13 +1057,13 @@
         <v>陈霞</v>
       </c>
       <c r="F4" s="0">
-        <v>黄嘉如</v>
+        <v>张宝怡</v>
       </c>
       <c r="H4" s="0">
-        <v>韩凤阁</v>
+        <v>罗云媛</v>
       </c>
       <c r="J4" s="0">
-        <v>罗云媛</v>
+        <v>孙江坤</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,19 +1077,19 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>朱志涛</v>
+        <v>房莉婷</v>
       </c>
       <c r="F5" s="0">
-        <v>游欣</v>
+        <v>邱建华</v>
       </c>
       <c r="H5" s="0">
-        <v>房莉婷</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="J5" s="0">
+        <v>单思远</v>
+      </c>
+      <c r="L5" s="0">
         <v>尤静宜</v>
-      </c>
-      <c r="L5" s="0">
-        <v>孙江坤</v>
       </c>
     </row>
     <row r="6">
@@ -1100,16 +1100,16 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>利宇涛</v>
+        <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
+        <v>田敏德</v>
+      </c>
+      <c r="H6" s="0">
         <v>周奥灵</v>
       </c>
-      <c r="H6" s="0">
-        <v>邱建华</v>
-      </c>
       <c r="J6" s="0">
-        <v>单思远</v>
+        <v>游欣</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,16 +1120,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D7" s="0">
         <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
-        <v>冉懋鑫</v>
+        <v>韩凤阁</v>
       </c>
       <c r="H7" s="0">
-        <v>张宝怡</v>
+        <v>朱志涛</v>
       </c>
       <c r="J7" s="0">
         <v>冼郸</v>
@@ -1143,19 +1143,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
+        <v>黄嘉如</v>
+      </c>
+      <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
-      <c r="H8" s="0">
+      <c r="J8" s="0">
         <v>陈维钧</v>
-      </c>
-      <c r="J8" s="0">
-        <v>田敏德</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1172,10 +1172,10 @@
         <v>周晗</v>
       </c>
       <c r="J9" s="0">
-        <v>段星同</v>
+        <v>利宇涛</v>
       </c>
       <c r="L9" s="0">
-        <v>谢谦益</v>
+        <v>王枫睿</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1034,13 +1034,13 @@
         <v>阮丽颖</v>
       </c>
       <c r="F3" s="0">
-        <v>李金言</v>
+        <v>王元元</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>王元元</v>
+        <v>李金言</v>
       </c>
       <c r="L3" s="0">
         <v>段星同</v>
@@ -1057,10 +1057,10 @@
         <v>陈霞</v>
       </c>
       <c r="F4" s="0">
-        <v>张宝怡</v>
+        <v>罗云媛</v>
       </c>
       <c r="H4" s="0">
-        <v>罗云媛</v>
+        <v>尤静宜</v>
       </c>
       <c r="J4" s="0">
         <v>孙江坤</v>
@@ -1077,19 +1077,19 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
+        <v>田敏德</v>
+      </c>
+      <c r="F5" s="0">
+        <v>单思远</v>
+      </c>
+      <c r="H5" s="0">
+        <v>周奥灵</v>
+      </c>
+      <c r="J5" s="0">
         <v>房莉婷</v>
       </c>
-      <c r="F5" s="0">
-        <v>邱建华</v>
-      </c>
-      <c r="H5" s="0">
-        <v>冉懋鑫</v>
-      </c>
-      <c r="J5" s="0">
-        <v>单思远</v>
-      </c>
       <c r="L5" s="0">
-        <v>尤静宜</v>
+        <v>冼郸</v>
       </c>
     </row>
     <row r="6">
@@ -1103,10 +1103,10 @@
         <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>田敏德</v>
+        <v>韩凤阁</v>
       </c>
       <c r="H6" s="0">
-        <v>周奥灵</v>
+        <v>黄嘉如</v>
       </c>
       <c r="J6" s="0">
         <v>游欣</v>
@@ -1126,13 +1126,13 @@
         <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
-        <v>韩凤阁</v>
+        <v>邱建华</v>
       </c>
       <c r="H7" s="0">
-        <v>朱志涛</v>
+        <v>张宝怡</v>
       </c>
       <c r="J7" s="0">
-        <v>冼郸</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1149,13 +1149,13 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>黄嘉如</v>
+        <v>陈维钧</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>陈维钧</v>
+        <v>朱志涛</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1172,10 +1172,10 @@
         <v>周晗</v>
       </c>
       <c r="J9" s="0">
+        <v>王枫睿</v>
+      </c>
+      <c r="L9" s="0">
         <v>利宇涛</v>
-      </c>
-      <c r="L9" s="0">
-        <v>王枫睿</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>王铭晟</v>
+        <v>王枫睿</v>
       </c>
       <c r="D3" s="0">
-        <v>阮丽颖</v>
+        <v>李金言</v>
       </c>
       <c r="F3" s="0">
         <v>王元元</v>
@@ -1040,7 +1040,7 @@
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>李金言</v>
+        <v>李锐涛</v>
       </c>
       <c r="L3" s="0">
         <v>段星同</v>
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>李锐涛</v>
+        <v>单思远</v>
       </c>
       <c r="D4" s="0">
+        <v>罗云媛</v>
+      </c>
+      <c r="F4" s="0">
+        <v>尤静宜</v>
+      </c>
+      <c r="H4" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="J4" s="0">
         <v>陈霞</v>
-      </c>
-      <c r="F4" s="0">
-        <v>罗云媛</v>
-      </c>
-      <c r="H4" s="0">
-        <v>尤静宜</v>
-      </c>
-      <c r="J4" s="0">
-        <v>孙江坤</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,19 +1077,19 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
+        <v>冉懋鑫</v>
+      </c>
+      <c r="F5" s="0">
+        <v>游欣</v>
+      </c>
+      <c r="H5" s="0">
+        <v>王铭晟</v>
+      </c>
+      <c r="J5" s="0">
         <v>田敏德</v>
       </c>
-      <c r="F5" s="0">
-        <v>单思远</v>
-      </c>
-      <c r="H5" s="0">
-        <v>周奥灵</v>
-      </c>
-      <c r="J5" s="0">
-        <v>房莉婷</v>
-      </c>
       <c r="L5" s="0">
-        <v>冼郸</v>
+        <v>孙江坤</v>
       </c>
     </row>
     <row r="6">
@@ -1100,16 +1100,16 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>谢谦益</v>
+        <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>韩凤阁</v>
+        <v>房莉婷</v>
       </c>
       <c r="H6" s="0">
-        <v>黄嘉如</v>
+        <v>邱建华</v>
       </c>
       <c r="J6" s="0">
-        <v>游欣</v>
+        <v>周奥灵</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1126,13 +1126,13 @@
         <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
-        <v>邱建华</v>
+        <v>韩凤阁</v>
       </c>
       <c r="H7" s="0">
         <v>张宝怡</v>
       </c>
       <c r="J7" s="0">
-        <v>冉懋鑫</v>
+        <v>冼郸</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1149,13 +1149,13 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>陈维钧</v>
+        <v>黄嘉如</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>朱志涛</v>
+        <v>陈维钧</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1172,10 +1172,10 @@
         <v>周晗</v>
       </c>
       <c r="J9" s="0">
-        <v>王枫睿</v>
+        <v>谢谦益</v>
       </c>
       <c r="L9" s="0">
-        <v>利宇涛</v>
+        <v>朱志涛</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,13 +1028,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>王枫睿</v>
+        <v>段星同</v>
       </c>
       <c r="D3" s="0">
+        <v>王元元</v>
+      </c>
+      <c r="F3" s="0">
         <v>李金言</v>
-      </c>
-      <c r="F3" s="0">
-        <v>王元元</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
@@ -1043,7 +1043,7 @@
         <v>李锐涛</v>
       </c>
       <c r="L3" s="0">
-        <v>段星同</v>
+        <v>谢谦益</v>
       </c>
     </row>
     <row r="4">
@@ -1057,10 +1057,10 @@
         <v>罗云媛</v>
       </c>
       <c r="F4" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="H4" s="0">
         <v>尤静宜</v>
-      </c>
-      <c r="H4" s="0">
-        <v>阮丽颖</v>
       </c>
       <c r="J4" s="0">
         <v>陈霞</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>冉懋鑫</v>
+        <v>韩凤阁</v>
       </c>
       <c r="F5" s="0">
-        <v>游欣</v>
+        <v>王铭晟</v>
       </c>
       <c r="H5" s="0">
-        <v>王铭晟</v>
+        <v>朱志涛</v>
       </c>
       <c r="J5" s="0">
-        <v>田敏德</v>
+        <v>张宝怡</v>
       </c>
       <c r="L5" s="0">
         <v>孙江坤</v>
@@ -1103,13 +1103,13 @@
         <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>房莉婷</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="H6" s="0">
+        <v>田敏德</v>
+      </c>
+      <c r="J6" s="0">
         <v>邱建华</v>
-      </c>
-      <c r="J6" s="0">
-        <v>周奥灵</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,16 +1120,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D7" s="0">
         <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
-        <v>韩凤阁</v>
+        <v>周奥灵</v>
       </c>
       <c r="H7" s="0">
-        <v>张宝怡</v>
+        <v>房莉婷</v>
       </c>
       <c r="J7" s="0">
         <v>冼郸</v>
@@ -1143,19 +1143,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>黄嘉如</v>
+        <v>曹柏圳</v>
       </c>
       <c r="H8" s="0">
-        <v>曹柏圳</v>
+        <v>陈维钧</v>
       </c>
       <c r="J8" s="0">
-        <v>陈维钧</v>
+        <v>游欣</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1172,10 +1172,10 @@
         <v>周晗</v>
       </c>
       <c r="J9" s="0">
-        <v>谢谦益</v>
+        <v>黄嘉如</v>
       </c>
       <c r="L9" s="0">
-        <v>朱志涛</v>
+        <v>王枫睿</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>段星同</v>
+        <v>谢谦益</v>
       </c>
       <c r="D3" s="0">
+        <v>李金言</v>
+      </c>
+      <c r="F3" s="0">
         <v>王元元</v>
-      </c>
-      <c r="F3" s="0">
-        <v>李金言</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>李锐涛</v>
+        <v>阮丽颖</v>
       </c>
       <c r="L3" s="0">
-        <v>谢谦益</v>
+        <v>王铭晟</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>单思远</v>
+        <v>李锐涛</v>
       </c>
       <c r="D4" s="0">
+        <v>陈霞</v>
+      </c>
+      <c r="F4" s="0">
+        <v>尤静宜</v>
+      </c>
+      <c r="H4" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="J4" s="0">
         <v>罗云媛</v>
-      </c>
-      <c r="F4" s="0">
-        <v>阮丽颖</v>
-      </c>
-      <c r="H4" s="0">
-        <v>尤静宜</v>
-      </c>
-      <c r="J4" s="0">
-        <v>陈霞</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>韩凤阁</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="F5" s="0">
-        <v>王铭晟</v>
+        <v>房莉婷</v>
       </c>
       <c r="H5" s="0">
-        <v>朱志涛</v>
+        <v>黄嘉如</v>
       </c>
       <c r="J5" s="0">
-        <v>张宝怡</v>
+        <v>田敏德</v>
       </c>
       <c r="L5" s="0">
         <v>孙江坤</v>
@@ -1103,13 +1103,13 @@
         <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>冉懋鑫</v>
+        <v>单思远</v>
       </c>
       <c r="H6" s="0">
-        <v>田敏德</v>
+        <v>邱建华</v>
       </c>
       <c r="J6" s="0">
-        <v>邱建华</v>
+        <v>游欣</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1129,7 +1129,7 @@
         <v>周奥灵</v>
       </c>
       <c r="H7" s="0">
-        <v>房莉婷</v>
+        <v>张宝怡</v>
       </c>
       <c r="J7" s="0">
         <v>冼郸</v>
@@ -1149,13 +1149,13 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
+        <v>陈维钧</v>
+      </c>
+      <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
-      <c r="H8" s="0">
-        <v>陈维钧</v>
-      </c>
       <c r="J8" s="0">
-        <v>游欣</v>
+        <v>朱志涛</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1172,7 +1172,7 @@
         <v>周晗</v>
       </c>
       <c r="J9" s="0">
-        <v>黄嘉如</v>
+        <v>段星同</v>
       </c>
       <c r="L9" s="0">
         <v>王枫睿</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="24750" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>谢谦益</v>
+        <v>王铭晟</v>
       </c>
       <c r="D3" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="F3" s="0">
         <v>李金言</v>
-      </c>
-      <c r="F3" s="0">
-        <v>王元元</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>阮丽颖</v>
+        <v>王元元</v>
       </c>
       <c r="L3" s="0">
-        <v>王铭晟</v>
+        <v>谢谦益</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>李锐涛</v>
+        <v>单思远</v>
       </c>
       <c r="D4" s="0">
-        <v>陈霞</v>
+        <v>罗云媛</v>
       </c>
       <c r="F4" s="0">
         <v>尤静宜</v>
       </c>
       <c r="H4" s="0">
-        <v>韩凤阁</v>
+        <v>李锐涛</v>
       </c>
       <c r="J4" s="0">
-        <v>罗云媛</v>
+        <v>陈霞</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
+        <v>邱建华</v>
+      </c>
+      <c r="F5" s="0">
+        <v>张宝怡</v>
+      </c>
+      <c r="H5" s="0">
         <v>冉懋鑫</v>
       </c>
-      <c r="F5" s="0">
-        <v>房莉婷</v>
-      </c>
-      <c r="H5" s="0">
-        <v>黄嘉如</v>
-      </c>
       <c r="J5" s="0">
-        <v>田敏德</v>
+        <v>韩凤阁</v>
       </c>
       <c r="L5" s="0">
         <v>孙江坤</v>
@@ -1103,13 +1103,13 @@
         <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>单思远</v>
+        <v>朱志涛</v>
       </c>
       <c r="H6" s="0">
-        <v>邱建华</v>
+        <v>房莉婷</v>
       </c>
       <c r="J6" s="0">
-        <v>游欣</v>
+        <v>黄嘉如</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D7" s="0">
         <v>陈子伶</v>
@@ -1129,7 +1129,7 @@
         <v>周奥灵</v>
       </c>
       <c r="H7" s="0">
-        <v>张宝怡</v>
+        <v>游欣</v>
       </c>
       <c r="J7" s="0">
         <v>冼郸</v>
@@ -1143,19 +1143,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>陈维钧</v>
+        <v>段星同</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>朱志涛</v>
+        <v>田敏德</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1171,11 +1171,11 @@
       <c r="D9" s="0">
         <v>周晗</v>
       </c>
-      <c r="J9" s="0">
-        <v>段星同</v>
-      </c>
-      <c r="L9" s="0">
+      <c r="F9" s="0">
         <v>王枫睿</v>
+      </c>
+      <c r="H9" s="0">
+        <v>陈维钧</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1043,7 +1043,7 @@
         <v>王元元</v>
       </c>
       <c r="L3" s="0">
-        <v>谢谦益</v>
+        <v>王枫睿</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>单思远</v>
+        <v>李锐涛</v>
       </c>
       <c r="D4" s="0">
-        <v>罗云媛</v>
+        <v>陈霞</v>
       </c>
       <c r="F4" s="0">
         <v>尤静宜</v>
       </c>
       <c r="H4" s="0">
-        <v>李锐涛</v>
+        <v>张宝怡</v>
       </c>
       <c r="J4" s="0">
-        <v>陈霞</v>
+        <v>罗云媛</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
+        <v>黄嘉如</v>
+      </c>
+      <c r="F5" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="H5" s="0">
         <v>邱建华</v>
       </c>
-      <c r="F5" s="0">
-        <v>张宝怡</v>
-      </c>
-      <c r="H5" s="0">
+      <c r="J5" s="0">
         <v>冉懋鑫</v>
-      </c>
-      <c r="J5" s="0">
-        <v>韩凤阁</v>
       </c>
       <c r="L5" s="0">
         <v>孙江坤</v>
@@ -1100,16 +1100,16 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>利宇涛</v>
+        <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>朱志涛</v>
+        <v>段星同</v>
       </c>
       <c r="H6" s="0">
         <v>房莉婷</v>
       </c>
       <c r="J6" s="0">
-        <v>黄嘉如</v>
+        <v>单思远</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,13 +1120,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D7" s="0">
         <v>陈子伶</v>
       </c>
       <c r="F7" s="0">
-        <v>周奥灵</v>
+        <v>田敏德</v>
       </c>
       <c r="H7" s="0">
         <v>游欣</v>
@@ -1143,19 +1143,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>段星同</v>
+        <v>朱志涛</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>田敏德</v>
+        <v>周奥灵</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1169,10 +1169,10 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
+        <v>利宇涛</v>
+      </c>
+      <c r="F9" s="0">
         <v>周晗</v>
-      </c>
-      <c r="F9" s="0">
-        <v>王枫睿</v>
       </c>
       <c r="H9" s="0">
         <v>陈维钧</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1034,16 +1034,16 @@
         <v>阮丽颖</v>
       </c>
       <c r="F3" s="0">
-        <v>李金言</v>
+        <v>王元元</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>王元元</v>
+        <v>李金言</v>
       </c>
       <c r="L3" s="0">
-        <v>王枫睿</v>
+        <v>利宇涛</v>
       </c>
     </row>
     <row r="4">
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>黄嘉如</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="F5" s="0">
-        <v>韩凤阁</v>
+        <v>单思远</v>
       </c>
       <c r="H5" s="0">
         <v>邱建华</v>
       </c>
       <c r="J5" s="0">
-        <v>冉懋鑫</v>
+        <v>韩凤阁</v>
       </c>
       <c r="L5" s="0">
         <v>孙江坤</v>
@@ -1103,13 +1103,13 @@
         <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>段星同</v>
+        <v>游欣</v>
       </c>
       <c r="H6" s="0">
-        <v>房莉婷</v>
+        <v>周奥灵</v>
       </c>
       <c r="J6" s="0">
-        <v>单思远</v>
+        <v>黄嘉如</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1123,16 +1123,16 @@
         <v>文泽豪</v>
       </c>
       <c r="D7" s="0">
-        <v>陈子伶</v>
+        <v>冼郸</v>
       </c>
       <c r="F7" s="0">
         <v>田敏德</v>
       </c>
       <c r="H7" s="0">
-        <v>游欣</v>
+        <v>朱志涛</v>
       </c>
       <c r="J7" s="0">
-        <v>冼郸</v>
+        <v>陈子伶</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1149,13 +1149,13 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>朱志涛</v>
+        <v>房莉婷</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>周奥灵</v>
+        <v>周晗</v>
       </c>
       <c r="L8" s="0">
         <v>谭旭君</v>
@@ -1169,10 +1169,10 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>利宇涛</v>
+        <v>王枫睿</v>
       </c>
       <c r="F9" s="0">
-        <v>周晗</v>
+        <v>段星同</v>
       </c>
       <c r="H9" s="0">
         <v>陈维钧</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>李锐涛</v>
+        <v>单思远</v>
       </c>
       <c r="D4" s="0">
-        <v>陈霞</v>
+        <v>罗云媛</v>
       </c>
       <c r="F4" s="0">
         <v>尤静宜</v>
       </c>
       <c r="H4" s="0">
-        <v>张宝怡</v>
+        <v>李锐涛</v>
       </c>
       <c r="J4" s="0">
-        <v>罗云媛</v>
+        <v>陈霞</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,13 +1077,13 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
+        <v>张宝怡</v>
+      </c>
+      <c r="F5" s="0">
+        <v>邱建华</v>
+      </c>
+      <c r="H5" s="0">
         <v>冉懋鑫</v>
-      </c>
-      <c r="F5" s="0">
-        <v>单思远</v>
-      </c>
-      <c r="H5" s="0">
-        <v>邱建华</v>
       </c>
       <c r="J5" s="0">
         <v>韩凤阁</v>
@@ -1103,10 +1103,10 @@
         <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>游欣</v>
+        <v>田敏德</v>
       </c>
       <c r="H6" s="0">
-        <v>周奥灵</v>
+        <v>段星同</v>
       </c>
       <c r="J6" s="0">
         <v>黄嘉如</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D7" s="0">
+        <v>陈子伶</v>
+      </c>
+      <c r="F7" s="0">
+        <v>周奥灵</v>
+      </c>
+      <c r="H7" s="0">
+        <v>房莉婷</v>
+      </c>
+      <c r="J7" s="0">
         <v>冼郸</v>
-      </c>
-      <c r="F7" s="0">
-        <v>田敏德</v>
-      </c>
-      <c r="H7" s="0">
-        <v>朱志涛</v>
-      </c>
-      <c r="J7" s="0">
-        <v>陈子伶</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1143,22 +1143,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>房莉婷</v>
+        <v>曹柏圳</v>
       </c>
       <c r="H8" s="0">
-        <v>曹柏圳</v>
+        <v>游欣</v>
       </c>
       <c r="J8" s="0">
-        <v>周晗</v>
+        <v>朱志涛</v>
       </c>
       <c r="L8" s="0">
-        <v>谭旭君</v>
+        <v>王枫睿</v>
       </c>
     </row>
     <row r="9">
@@ -1169,13 +1169,13 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>王枫睿</v>
+        <v>谭旭君</v>
       </c>
       <c r="F9" s="0">
-        <v>段星同</v>
+        <v>陈维钧</v>
       </c>
       <c r="H9" s="0">
-        <v>陈维钧</v>
+        <v>周晗</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1043,7 +1043,7 @@
         <v>李金言</v>
       </c>
       <c r="L3" s="0">
-        <v>利宇涛</v>
+        <v>王枫睿</v>
       </c>
     </row>
     <row r="4">
@@ -1083,10 +1083,10 @@
         <v>邱建华</v>
       </c>
       <c r="H5" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="J5" s="0">
         <v>冉懋鑫</v>
-      </c>
-      <c r="J5" s="0">
-        <v>韩凤阁</v>
       </c>
       <c r="L5" s="0">
         <v>孙江坤</v>
@@ -1106,10 +1106,10 @@
         <v>田敏德</v>
       </c>
       <c r="H6" s="0">
-        <v>段星同</v>
+        <v>黄嘉如</v>
       </c>
       <c r="J6" s="0">
-        <v>黄嘉如</v>
+        <v>谭旭君</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D7" s="0">
-        <v>陈子伶</v>
+        <v>冼郸</v>
       </c>
       <c r="F7" s="0">
         <v>周奥灵</v>
       </c>
       <c r="H7" s="0">
-        <v>房莉婷</v>
+        <v>游欣</v>
       </c>
       <c r="J7" s="0">
-        <v>冼郸</v>
+        <v>陈子伶</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1143,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
@@ -1152,13 +1152,13 @@
         <v>曹柏圳</v>
       </c>
       <c r="H8" s="0">
-        <v>游欣</v>
+        <v>朱志涛</v>
       </c>
       <c r="J8" s="0">
-        <v>朱志涛</v>
+        <v>房莉婷</v>
       </c>
       <c r="L8" s="0">
-        <v>王枫睿</v>
+        <v>利宇涛</v>
       </c>
     </row>
     <row r="9">
@@ -1169,7 +1169,7 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>谭旭君</v>
+        <v>段星同</v>
       </c>
       <c r="F9" s="0">
         <v>陈维钧</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>王铭晟</v>
+        <v>王枫睿</v>
       </c>
       <c r="D3" s="0">
-        <v>阮丽颖</v>
+        <v>李金言</v>
       </c>
       <c r="F3" s="0">
         <v>王元元</v>
@@ -1040,10 +1040,10 @@
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>李金言</v>
+        <v>李锐涛</v>
       </c>
       <c r="L3" s="0">
-        <v>王枫睿</v>
+        <v>谢谦益</v>
       </c>
     </row>
     <row r="4">
@@ -1057,10 +1057,10 @@
         <v>罗云媛</v>
       </c>
       <c r="F4" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="H4" s="0">
         <v>尤静宜</v>
-      </c>
-      <c r="H4" s="0">
-        <v>李锐涛</v>
       </c>
       <c r="J4" s="0">
         <v>陈霞</v>
@@ -1080,7 +1080,7 @@
         <v>张宝怡</v>
       </c>
       <c r="F5" s="0">
-        <v>邱建华</v>
+        <v>王铭晟</v>
       </c>
       <c r="H5" s="0">
         <v>韩凤阁</v>
@@ -1100,16 +1100,16 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>谢谦益</v>
+        <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>田敏德</v>
+        <v>朱志涛</v>
       </c>
       <c r="H6" s="0">
         <v>黄嘉如</v>
       </c>
       <c r="J6" s="0">
-        <v>谭旭君</v>
+        <v>房莉婷</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1126,7 +1126,7 @@
         <v>冼郸</v>
       </c>
       <c r="F7" s="0">
-        <v>周奥灵</v>
+        <v>周晗</v>
       </c>
       <c r="H7" s="0">
         <v>游欣</v>
@@ -1149,16 +1149,16 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
+        <v>田敏德</v>
+      </c>
+      <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
-      <c r="H8" s="0">
-        <v>朱志涛</v>
-      </c>
       <c r="J8" s="0">
-        <v>房莉婷</v>
+        <v>周奥灵</v>
       </c>
       <c r="L8" s="0">
-        <v>利宇涛</v>
+        <v>段星同</v>
       </c>
     </row>
     <row r="9">
@@ -1169,13 +1169,13 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>段星同</v>
+        <v>邱建华</v>
       </c>
       <c r="F9" s="0">
+        <v>谭旭君</v>
+      </c>
+      <c r="H9" s="0">
         <v>陈维钧</v>
-      </c>
-      <c r="H9" s="0">
-        <v>周晗</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1043,7 +1043,7 @@
         <v>李锐涛</v>
       </c>
       <c r="L3" s="0">
-        <v>谢谦益</v>
+        <v>利宇涛</v>
       </c>
     </row>
     <row r="4">
@@ -1057,10 +1057,10 @@
         <v>罗云媛</v>
       </c>
       <c r="F4" s="0">
+        <v>尤静宜</v>
+      </c>
+      <c r="H4" s="0">
         <v>阮丽颖</v>
-      </c>
-      <c r="H4" s="0">
-        <v>尤静宜</v>
       </c>
       <c r="J4" s="0">
         <v>陈霞</v>
@@ -1077,13 +1077,13 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>张宝怡</v>
+        <v>韩凤阁</v>
       </c>
       <c r="F5" s="0">
+        <v>黄嘉如</v>
+      </c>
+      <c r="H5" s="0">
         <v>王铭晟</v>
-      </c>
-      <c r="H5" s="0">
-        <v>韩凤阁</v>
       </c>
       <c r="J5" s="0">
         <v>冉懋鑫</v>
@@ -1100,16 +1100,16 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>利宇涛</v>
+        <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
+        <v>周奥灵</v>
+      </c>
+      <c r="H6" s="0">
+        <v>邱建华</v>
+      </c>
+      <c r="J6" s="0">
         <v>朱志涛</v>
-      </c>
-      <c r="H6" s="0">
-        <v>黄嘉如</v>
-      </c>
-      <c r="J6" s="0">
-        <v>房莉婷</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1126,10 +1126,10 @@
         <v>冼郸</v>
       </c>
       <c r="F7" s="0">
-        <v>周晗</v>
+        <v>房莉婷</v>
       </c>
       <c r="H7" s="0">
-        <v>游欣</v>
+        <v>张宝怡</v>
       </c>
       <c r="J7" s="0">
         <v>陈子伶</v>
@@ -1155,10 +1155,10 @@
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>周奥灵</v>
+        <v>游欣</v>
       </c>
       <c r="L8" s="0">
-        <v>段星同</v>
+        <v>谭旭君</v>
       </c>
     </row>
     <row r="9">
@@ -1169,10 +1169,10 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>邱建华</v>
+        <v>周晗</v>
       </c>
       <c r="F9" s="0">
-        <v>谭旭君</v>
+        <v>段星同</v>
       </c>
       <c r="H9" s="0">
         <v>陈维钧</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>座位表</t>
   </si>
@@ -42,22 +42,142 @@
     <t>第一排</t>
   </si>
   <si>
+    <t>王枫睿</t>
+  </si>
+  <si>
+    <t>李金言</t>
+  </si>
+  <si>
+    <t>王元元</t>
+  </si>
+  <si>
+    <t>古兆康</t>
+  </si>
+  <si>
+    <t>李锐涛</t>
+  </si>
+  <si>
+    <t>利宇涛</t>
+  </si>
+  <si>
     <t>第二排</t>
   </si>
   <si>
+    <t>单思远</t>
+  </si>
+  <si>
+    <t>罗云媛</t>
+  </si>
+  <si>
+    <t>尤静宜</t>
+  </si>
+  <si>
+    <t>阮丽颖</t>
+  </si>
+  <si>
+    <t>陈霞</t>
+  </si>
+  <si>
+    <t>钟元彪</t>
+  </si>
+  <si>
     <t>第三排</t>
   </si>
   <si>
+    <t>林子越</t>
+  </si>
+  <si>
+    <t>韩凤阁</t>
+  </si>
+  <si>
+    <t>黄嘉如</t>
+  </si>
+  <si>
+    <t>王铭晟</t>
+  </si>
+  <si>
+    <t>冉懋鑫</t>
+  </si>
+  <si>
+    <t>孙江坤</t>
+  </si>
+  <si>
     <t>第四排</t>
   </si>
   <si>
+    <t>秦浩朗</t>
+  </si>
+  <si>
+    <t>谢谦益</t>
+  </si>
+  <si>
+    <t>周奥灵</t>
+  </si>
+  <si>
+    <t>邱建华</t>
+  </si>
+  <si>
+    <t>朱志涛</t>
+  </si>
+  <si>
+    <t>古恩宇</t>
+  </si>
+  <si>
     <t>第五排</t>
   </si>
   <si>
+    <t>文泽豪</t>
+  </si>
+  <si>
+    <t>冼郸</t>
+  </si>
+  <si>
+    <t>房莉婷</t>
+  </si>
+  <si>
+    <t>张宝怡</t>
+  </si>
+  <si>
+    <t>陈子伶</t>
+  </si>
+  <si>
+    <t>曾可</t>
+  </si>
+  <si>
     <t>第六排</t>
   </si>
   <si>
+    <t>覃莹</t>
+  </si>
+  <si>
+    <t>郑泽铭</t>
+  </si>
+  <si>
+    <t>田敏德</t>
+  </si>
+  <si>
+    <t>曹柏圳</t>
+  </si>
+  <si>
+    <t>游欣</t>
+  </si>
+  <si>
+    <t>谭旭君</t>
+  </si>
+  <si>
     <t>第七排</t>
+  </si>
+  <si>
+    <t>雷利</t>
+  </si>
+  <si>
+    <t>周晗</t>
+  </si>
+  <si>
+    <t>段星同</t>
+  </si>
+  <si>
+    <t>陈维钧</t>
   </si>
 </sst>
 </file>
@@ -70,13 +190,33 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -417,12 +557,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,144 +698,161 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -994,189 +1166,258 @@
   <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4545454545455" defaultRowHeight="37" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="10.4545454545455" style="1"/>
+    <col min="3" max="3" width="6.44545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4545454545455" style="1"/>
+    <col min="5" max="5" width="6.44545454545455" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4545454545455" style="1"/>
+    <col min="7" max="7" width="6.44545454545455" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.4545454545455" style="1"/>
+    <col min="9" max="9" width="6.44545454545455" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.4545454545455" style="1"/>
+    <col min="11" max="11" width="6.44545454545455" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.4545454545455" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2">
-      <c r="B2" s="0" t="s">
+    <row r="2" customHeight="1" spans="1:12">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" customHeight="1" spans="1:12">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0">
-        <v>王枫睿</v>
-      </c>
-      <c r="D3" s="0">
-        <v>李金言</v>
-      </c>
-      <c r="F3" s="0">
-        <v>王元元</v>
-      </c>
-      <c r="H3" s="0">
-        <v>古兆康</v>
-      </c>
-      <c r="J3" s="0">
-        <v>李锐涛</v>
-      </c>
-      <c r="L3" s="0">
-        <v>利宇涛</v>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0">
-        <v>单思远</v>
-      </c>
-      <c r="D4" s="0">
-        <v>罗云媛</v>
-      </c>
-      <c r="F4" s="0">
-        <v>尤静宜</v>
-      </c>
-      <c r="H4" s="0">
-        <v>阮丽颖</v>
-      </c>
-      <c r="J4" s="0">
-        <v>陈霞</v>
-      </c>
-      <c r="L4" s="0">
-        <v>钟元彪</v>
+    <row r="4" customHeight="1" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0">
-        <v>林子越</v>
-      </c>
-      <c r="D5" s="0">
-        <v>韩凤阁</v>
-      </c>
-      <c r="F5" s="0">
-        <v>黄嘉如</v>
-      </c>
-      <c r="H5" s="0">
-        <v>王铭晟</v>
-      </c>
-      <c r="J5" s="0">
-        <v>冉懋鑫</v>
-      </c>
-      <c r="L5" s="0">
-        <v>孙江坤</v>
+    <row r="5" customHeight="1" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0">
-        <v>秦浩朗</v>
-      </c>
-      <c r="D6" s="0">
-        <v>谢谦益</v>
-      </c>
-      <c r="F6" s="0">
-        <v>周奥灵</v>
-      </c>
-      <c r="H6" s="0">
-        <v>邱建华</v>
-      </c>
-      <c r="J6" s="0">
-        <v>朱志涛</v>
-      </c>
-      <c r="L6" s="0">
-        <v>古恩宇</v>
+    <row r="6" customHeight="1" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0">
-        <v>文泽豪</v>
-      </c>
-      <c r="D7" s="0">
-        <v>冼郸</v>
-      </c>
-      <c r="F7" s="0">
-        <v>房莉婷</v>
-      </c>
-      <c r="H7" s="0">
-        <v>张宝怡</v>
-      </c>
-      <c r="J7" s="0">
-        <v>陈子伶</v>
-      </c>
-      <c r="L7" s="0">
-        <v>曾可</v>
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0">
-        <v>覃莹</v>
-      </c>
-      <c r="D8" s="0">
-        <v>郑泽铭</v>
-      </c>
-      <c r="F8" s="0">
-        <v>田敏德</v>
-      </c>
-      <c r="H8" s="0">
-        <v>曹柏圳</v>
-      </c>
-      <c r="J8" s="0">
-        <v>游欣</v>
-      </c>
-      <c r="L8" s="0">
-        <v>谭旭君</v>
+    <row r="8" customHeight="1" spans="1:12">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="0">
-        <v>雷利</v>
-      </c>
-      <c r="D9" s="0">
-        <v>周晗</v>
-      </c>
-      <c r="F9" s="0">
-        <v>段星同</v>
-      </c>
-      <c r="H9" s="0">
-        <v>陈维钧</v>
-      </c>
+    <row r="9" customHeight="1" spans="1:12">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1193,7 +1434,9 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
@@ -1208,7 +1451,9 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>座位表</t>
   </si>
@@ -42,142 +42,22 @@
     <t>第一排</t>
   </si>
   <si>
-    <t>王枫睿</t>
-  </si>
-  <si>
-    <t>李金言</t>
-  </si>
-  <si>
-    <t>王元元</t>
-  </si>
-  <si>
-    <t>古兆康</t>
-  </si>
-  <si>
-    <t>李锐涛</t>
-  </si>
-  <si>
-    <t>利宇涛</t>
-  </si>
-  <si>
     <t>第二排</t>
   </si>
   <si>
-    <t>单思远</t>
-  </si>
-  <si>
-    <t>罗云媛</t>
-  </si>
-  <si>
-    <t>尤静宜</t>
-  </si>
-  <si>
-    <t>阮丽颖</t>
-  </si>
-  <si>
-    <t>陈霞</t>
-  </si>
-  <si>
-    <t>钟元彪</t>
-  </si>
-  <si>
     <t>第三排</t>
   </si>
   <si>
-    <t>林子越</t>
-  </si>
-  <si>
-    <t>韩凤阁</t>
-  </si>
-  <si>
-    <t>黄嘉如</t>
-  </si>
-  <si>
-    <t>王铭晟</t>
-  </si>
-  <si>
-    <t>冉懋鑫</t>
-  </si>
-  <si>
-    <t>孙江坤</t>
-  </si>
-  <si>
     <t>第四排</t>
   </si>
   <si>
-    <t>秦浩朗</t>
-  </si>
-  <si>
-    <t>谢谦益</t>
-  </si>
-  <si>
-    <t>周奥灵</t>
-  </si>
-  <si>
-    <t>邱建华</t>
-  </si>
-  <si>
-    <t>朱志涛</t>
-  </si>
-  <si>
-    <t>古恩宇</t>
-  </si>
-  <si>
     <t>第五排</t>
   </si>
   <si>
-    <t>文泽豪</t>
-  </si>
-  <si>
-    <t>冼郸</t>
-  </si>
-  <si>
-    <t>房莉婷</t>
-  </si>
-  <si>
-    <t>张宝怡</t>
-  </si>
-  <si>
-    <t>陈子伶</t>
-  </si>
-  <si>
-    <t>曾可</t>
-  </si>
-  <si>
     <t>第六排</t>
   </si>
   <si>
-    <t>覃莹</t>
-  </si>
-  <si>
-    <t>郑泽铭</t>
-  </si>
-  <si>
-    <t>田敏德</t>
-  </si>
-  <si>
-    <t>曹柏圳</t>
-  </si>
-  <si>
-    <t>游欣</t>
-  </si>
-  <si>
-    <t>谭旭君</t>
-  </si>
-  <si>
     <t>第七排</t>
-  </si>
-  <si>
-    <t>雷利</t>
-  </si>
-  <si>
-    <t>周晗</t>
-  </si>
-  <si>
-    <t>段星同</t>
-  </si>
-  <si>
-    <t>陈维钧</t>
   </si>
 </sst>
 </file>
@@ -190,33 +70,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -557,27 +417,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,161 +543,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1166,258 +994,189 @@
   <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4545454545455" defaultRowHeight="37" customHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="10.4545454545455" style="1"/>
-    <col min="3" max="3" width="6.44545454545455" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4545454545455" style="1"/>
-    <col min="5" max="5" width="6.44545454545455" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.4545454545455" style="1"/>
-    <col min="7" max="7" width="6.44545454545455" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4545454545455" style="1"/>
-    <col min="9" max="9" width="6.44545454545455" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.4545454545455" style="1"/>
-    <col min="11" max="11" width="6.44545454545455" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.4545454545455" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+    <row r="2">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:12">
-      <c r="A3" s="5" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="0">
+        <v>谢谦益</v>
+      </c>
+      <c r="D3" s="0">
+        <v>李金言</v>
+      </c>
+      <c r="F3" s="0">
+        <v>王元元</v>
+      </c>
+      <c r="H3" s="0">
+        <v>古兆康</v>
+      </c>
+      <c r="J3" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="L3" s="0">
+        <v>王铭晟</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="B4" s="0">
+        <v>李锐涛</v>
+      </c>
+      <c r="D4" s="0">
+        <v>陈霞</v>
+      </c>
+      <c r="F4" s="0">
+        <v>张宝怡</v>
+      </c>
+      <c r="H4" s="0">
+        <v>尤静宜</v>
+      </c>
+      <c r="J4" s="0">
+        <v>罗云媛</v>
+      </c>
+      <c r="L4" s="0">
+        <v>钟元彪</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6" t="s">
+      <c r="B5" s="0">
+        <v>林子越</v>
+      </c>
+      <c r="D5" s="0">
+        <v>单思远</v>
+      </c>
+      <c r="F5" s="0">
+        <v>邱建华</v>
+      </c>
+      <c r="H5" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="J5" s="0">
+        <v>冉懋鑫</v>
+      </c>
+      <c r="L5" s="0">
+        <v>孙江坤</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6" t="s">
+      <c r="B6" s="0">
+        <v>秦浩朗</v>
+      </c>
+      <c r="D6" s="0">
+        <v>利宇涛</v>
+      </c>
+      <c r="F6" s="0">
+        <v>房莉婷</v>
+      </c>
+      <c r="H6" s="0">
+        <v>黄嘉如</v>
+      </c>
+      <c r="J6" s="0">
+        <v>谭旭君</v>
+      </c>
+      <c r="L6" s="0">
+        <v>古恩宇</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="B7" s="0">
+        <v>文泽豪</v>
+      </c>
+      <c r="D7" s="0">
+        <v>冼郸</v>
+      </c>
+      <c r="F7" s="0">
+        <v>游欣</v>
+      </c>
+      <c r="H7" s="0">
+        <v>朱志涛</v>
+      </c>
+      <c r="J7" s="0">
+        <v>陈子伶</v>
+      </c>
+      <c r="L7" s="0">
+        <v>曾可</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6" t="s">
+      <c r="B8" s="0">
+        <v>覃莹</v>
+      </c>
+      <c r="D8" s="0">
+        <v>郑泽铭</v>
+      </c>
+      <c r="F8" s="0">
+        <v>田敏德</v>
+      </c>
+      <c r="H8" s="0">
+        <v>曹柏圳</v>
+      </c>
+      <c r="J8" s="0">
+        <v>周奥灵</v>
+      </c>
+      <c r="L8" s="0">
+        <v>王枫睿</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:12">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:12">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:12">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:12">
-      <c r="A8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:12">
-      <c r="A9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="B9" s="0">
+        <v>雷利</v>
+      </c>
+      <c r="D9" s="0">
+        <v>周晗</v>
+      </c>
+      <c r="F9" s="0">
+        <v>段星同</v>
+      </c>
+      <c r="H9" s="0">
+        <v>陈维钧</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1434,9 +1193,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
@@ -1451,9 +1208,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1040,10 +1040,10 @@
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>阮丽颖</v>
+        <v>李锐涛</v>
       </c>
       <c r="L3" s="0">
-        <v>王铭晟</v>
+        <v>王枫睿</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>李锐涛</v>
+        <v>单思远</v>
       </c>
       <c r="D4" s="0">
-        <v>陈霞</v>
+        <v>罗云媛</v>
       </c>
       <c r="F4" s="0">
-        <v>张宝怡</v>
+        <v>阮丽颖</v>
       </c>
       <c r="H4" s="0">
         <v>尤静宜</v>
       </c>
       <c r="J4" s="0">
-        <v>罗云媛</v>
+        <v>陈霞</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>单思远</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="F5" s="0">
+        <v>王铭晟</v>
+      </c>
+      <c r="H5" s="0">
         <v>邱建华</v>
       </c>
-      <c r="H5" s="0">
-        <v>韩凤阁</v>
-      </c>
       <c r="J5" s="0">
-        <v>冉懋鑫</v>
+        <v>张宝怡</v>
       </c>
       <c r="L5" s="0">
         <v>孙江坤</v>
@@ -1103,13 +1103,13 @@
         <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
-        <v>房莉婷</v>
+        <v>朱志涛</v>
       </c>
       <c r="H6" s="0">
         <v>黄嘉如</v>
       </c>
       <c r="J6" s="0">
-        <v>谭旭君</v>
+        <v>韩凤阁</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,16 +1120,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D7" s="0">
         <v>冼郸</v>
       </c>
       <c r="F7" s="0">
-        <v>游欣</v>
+        <v>房莉婷</v>
       </c>
       <c r="H7" s="0">
-        <v>朱志涛</v>
+        <v>周奥灵</v>
       </c>
       <c r="J7" s="0">
         <v>陈子伶</v>
@@ -1143,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
@@ -1155,10 +1155,10 @@
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>周奥灵</v>
+        <v>游欣</v>
       </c>
       <c r="L8" s="0">
-        <v>王枫睿</v>
+        <v>谭旭君</v>
       </c>
     </row>
     <row r="9">

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>谢谦益</v>
+        <v>王枫睿</v>
       </c>
       <c r="D3" s="0">
         <v>李金言</v>
@@ -1043,7 +1043,7 @@
         <v>李锐涛</v>
       </c>
       <c r="L3" s="0">
-        <v>王枫睿</v>
+        <v>黄嘉如</v>
       </c>
     </row>
     <row r="4">
@@ -1077,13 +1077,13 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>冉懋鑫</v>
+        <v>韩凤阁</v>
       </c>
       <c r="F5" s="0">
         <v>王铭晟</v>
       </c>
       <c r="H5" s="0">
-        <v>邱建华</v>
+        <v>冉懋鑫</v>
       </c>
       <c r="J5" s="0">
         <v>张宝怡</v>
@@ -1100,16 +1100,16 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>利宇涛</v>
+        <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>朱志涛</v>
+        <v>周奥灵</v>
       </c>
       <c r="H6" s="0">
-        <v>黄嘉如</v>
+        <v>游欣</v>
       </c>
       <c r="J6" s="0">
-        <v>韩凤阁</v>
+        <v>邱建华</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1123,16 +1123,16 @@
         <v>覃莹</v>
       </c>
       <c r="D7" s="0">
+        <v>陈子伶</v>
+      </c>
+      <c r="F7" s="0">
+        <v>朱志涛</v>
+      </c>
+      <c r="H7" s="0">
+        <v>谭旭君</v>
+      </c>
+      <c r="J7" s="0">
         <v>冼郸</v>
-      </c>
-      <c r="F7" s="0">
-        <v>房莉婷</v>
-      </c>
-      <c r="H7" s="0">
-        <v>周奥灵</v>
-      </c>
-      <c r="J7" s="0">
-        <v>陈子伶</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1155,10 +1155,10 @@
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>游欣</v>
+        <v>房莉婷</v>
       </c>
       <c r="L8" s="0">
-        <v>谭旭君</v>
+        <v>段星同</v>
       </c>
     </row>
     <row r="9">
@@ -1172,7 +1172,7 @@
         <v>周晗</v>
       </c>
       <c r="F9" s="0">
-        <v>段星同</v>
+        <v>利宇涛</v>
       </c>
       <c r="H9" s="0">
         <v>陈维钧</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>王枫睿</v>
+        <v>王铭晟</v>
       </c>
       <c r="D3" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="F3" s="0">
         <v>李金言</v>
-      </c>
-      <c r="F3" s="0">
-        <v>王元元</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>李锐涛</v>
+        <v>王元元</v>
       </c>
       <c r="L3" s="0">
-        <v>黄嘉如</v>
+        <v>王枫睿</v>
       </c>
     </row>
     <row r="4">
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>单思远</v>
+        <v>李锐涛</v>
       </c>
       <c r="D4" s="0">
+        <v>陈霞</v>
+      </c>
+      <c r="F4" s="0">
+        <v>尤静宜</v>
+      </c>
+      <c r="H4" s="0">
+        <v>张宝怡</v>
+      </c>
+      <c r="J4" s="0">
         <v>罗云媛</v>
-      </c>
-      <c r="F4" s="0">
-        <v>阮丽颖</v>
-      </c>
-      <c r="H4" s="0">
-        <v>尤静宜</v>
-      </c>
-      <c r="J4" s="0">
-        <v>陈霞</v>
       </c>
       <c r="L4" s="0">
         <v>钟元彪</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
+        <v>单思远</v>
+      </c>
+      <c r="F5" s="0">
+        <v>冉懋鑫</v>
+      </c>
+      <c r="H5" s="0">
+        <v>邱建华</v>
+      </c>
+      <c r="J5" s="0">
         <v>韩凤阁</v>
-      </c>
-      <c r="F5" s="0">
-        <v>王铭晟</v>
-      </c>
-      <c r="H5" s="0">
-        <v>冉懋鑫</v>
-      </c>
-      <c r="J5" s="0">
-        <v>张宝怡</v>
       </c>
       <c r="L5" s="0">
         <v>孙江坤</v>
@@ -1106,10 +1106,10 @@
         <v>周奥灵</v>
       </c>
       <c r="H6" s="0">
-        <v>游欣</v>
+        <v>田敏德</v>
       </c>
       <c r="J6" s="0">
-        <v>邱建华</v>
+        <v>黄嘉如</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D7" s="0">
+        <v>冼郸</v>
+      </c>
+      <c r="F7" s="0">
+        <v>房莉婷</v>
+      </c>
+      <c r="H7" s="0">
+        <v>游欣</v>
+      </c>
+      <c r="J7" s="0">
         <v>陈子伶</v>
-      </c>
-      <c r="F7" s="0">
-        <v>朱志涛</v>
-      </c>
-      <c r="H7" s="0">
-        <v>谭旭君</v>
-      </c>
-      <c r="J7" s="0">
-        <v>冼郸</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1143,22 +1143,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>田敏德</v>
+        <v>周晗</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>房莉婷</v>
+        <v>朱志涛</v>
       </c>
       <c r="L8" s="0">
-        <v>段星同</v>
+        <v>谭旭君</v>
       </c>
     </row>
     <row r="9">
@@ -1169,7 +1169,7 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>周晗</v>
+        <v>段星同</v>
       </c>
       <c r="F9" s="0">
         <v>利宇涛</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>王铭晟</v>
+        <v>黄嘉如</v>
       </c>
       <c r="D3" s="0">
-        <v>阮丽颖</v>
+        <v>王元元</v>
       </c>
       <c r="F3" s="0">
         <v>李金言</v>
@@ -1040,10 +1040,10 @@
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>王元元</v>
+        <v>阮丽颖</v>
       </c>
       <c r="L3" s="0">
-        <v>王枫睿</v>
+        <v>王铭晟</v>
       </c>
     </row>
     <row r="4">
@@ -1057,10 +1057,10 @@
         <v>陈霞</v>
       </c>
       <c r="F4" s="0">
+        <v>韩凤阁</v>
+      </c>
+      <c r="H4" s="0">
         <v>尤静宜</v>
-      </c>
-      <c r="H4" s="0">
-        <v>张宝怡</v>
       </c>
       <c r="J4" s="0">
         <v>罗云媛</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>单思远</v>
+        <v>张宝怡</v>
       </c>
       <c r="F5" s="0">
         <v>冉懋鑫</v>
       </c>
       <c r="H5" s="0">
-        <v>邱建华</v>
+        <v>单思远</v>
       </c>
       <c r="J5" s="0">
-        <v>韩凤阁</v>
+        <v>游欣</v>
       </c>
       <c r="L5" s="0">
         <v>孙江坤</v>
@@ -1103,13 +1103,13 @@
         <v>谢谦益</v>
       </c>
       <c r="F6" s="0">
-        <v>周奥灵</v>
+        <v>田敏德</v>
       </c>
       <c r="H6" s="0">
-        <v>田敏德</v>
+        <v>利宇涛</v>
       </c>
       <c r="J6" s="0">
-        <v>黄嘉如</v>
+        <v>朱志涛</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1126,10 +1126,10 @@
         <v>冼郸</v>
       </c>
       <c r="F7" s="0">
+        <v>邱建华</v>
+      </c>
+      <c r="H7" s="0">
         <v>房莉婷</v>
-      </c>
-      <c r="H7" s="0">
-        <v>游欣</v>
       </c>
       <c r="J7" s="0">
         <v>陈子伶</v>
@@ -1149,16 +1149,16 @@
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>周晗</v>
+        <v>周奥灵</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>朱志涛</v>
+        <v>谭旭君</v>
       </c>
       <c r="L8" s="0">
-        <v>谭旭君</v>
+        <v>段星同</v>
       </c>
     </row>
     <row r="9">
@@ -1169,10 +1169,10 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>段星同</v>
+        <v>王枫睿</v>
       </c>
       <c r="F9" s="0">
-        <v>利宇涛</v>
+        <v>周晗</v>
       </c>
       <c r="H9" s="0">
         <v>陈维钧</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1028,22 +1028,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="0">
-        <v>黄嘉如</v>
+        <v>王铭晟</v>
       </c>
       <c r="D3" s="0">
+        <v>阮丽颖</v>
+      </c>
+      <c r="F3" s="0">
         <v>王元元</v>
-      </c>
-      <c r="F3" s="0">
-        <v>李金言</v>
       </c>
       <c r="H3" s="0">
         <v>古兆康</v>
       </c>
       <c r="J3" s="0">
-        <v>阮丽颖</v>
+        <v>李金言</v>
       </c>
       <c r="L3" s="0">
-        <v>王铭晟</v>
+        <v>谢谦益</v>
       </c>
     </row>
     <row r="4">
@@ -1057,10 +1057,10 @@
         <v>陈霞</v>
       </c>
       <c r="F4" s="0">
-        <v>韩凤阁</v>
+        <v>尤静宜</v>
       </c>
       <c r="H4" s="0">
-        <v>尤静宜</v>
+        <v>张宝怡</v>
       </c>
       <c r="J4" s="0">
         <v>罗云媛</v>
@@ -1077,16 +1077,16 @@
         <v>林子越</v>
       </c>
       <c r="D5" s="0">
-        <v>张宝怡</v>
+        <v>单思远</v>
       </c>
       <c r="F5" s="0">
         <v>冉懋鑫</v>
       </c>
       <c r="H5" s="0">
-        <v>单思远</v>
+        <v>邱建华</v>
       </c>
       <c r="J5" s="0">
-        <v>游欣</v>
+        <v>韩凤阁</v>
       </c>
       <c r="L5" s="0">
         <v>孙江坤</v>
@@ -1100,16 +1100,16 @@
         <v>秦浩朗</v>
       </c>
       <c r="D6" s="0">
-        <v>谢谦益</v>
+        <v>利宇涛</v>
       </c>
       <c r="F6" s="0">
+        <v>朱志涛</v>
+      </c>
+      <c r="H6" s="0">
         <v>田敏德</v>
       </c>
-      <c r="H6" s="0">
-        <v>利宇涛</v>
-      </c>
       <c r="J6" s="0">
-        <v>朱志涛</v>
+        <v>黄嘉如</v>
       </c>
       <c r="L6" s="0">
         <v>古恩宇</v>
@@ -1120,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>文泽豪</v>
+        <v>覃莹</v>
       </c>
       <c r="D7" s="0">
+        <v>陈子伶</v>
+      </c>
+      <c r="F7" s="0">
+        <v>段星同</v>
+      </c>
+      <c r="H7" s="0">
+        <v>周奥灵</v>
+      </c>
+      <c r="J7" s="0">
         <v>冼郸</v>
-      </c>
-      <c r="F7" s="0">
-        <v>邱建华</v>
-      </c>
-      <c r="H7" s="0">
-        <v>房莉婷</v>
-      </c>
-      <c r="J7" s="0">
-        <v>陈子伶</v>
       </c>
       <c r="L7" s="0">
         <v>曾可</v>
@@ -1143,22 +1143,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="0">
-        <v>覃莹</v>
+        <v>文泽豪</v>
       </c>
       <c r="D8" s="0">
         <v>郑泽铭</v>
       </c>
       <c r="F8" s="0">
-        <v>周奥灵</v>
+        <v>房莉婷</v>
       </c>
       <c r="H8" s="0">
         <v>曹柏圳</v>
       </c>
       <c r="J8" s="0">
-        <v>谭旭君</v>
+        <v>游欣</v>
       </c>
       <c r="L8" s="0">
-        <v>段星同</v>
+        <v>王枫睿</v>
       </c>
     </row>
     <row r="9">
@@ -1169,10 +1169,10 @@
         <v>雷利</v>
       </c>
       <c r="D9" s="0">
-        <v>王枫睿</v>
+        <v>周晗</v>
       </c>
       <c r="F9" s="0">
-        <v>周晗</v>
+        <v>谭旭君</v>
       </c>
       <c r="H9" s="0">
         <v>陈维钧</v>
